--- a/TabelaTeste2.xlsx
+++ b/TabelaTeste2.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudos\Ibmec\4º Semestre\Estatística\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\Pandas Lib\Testes - 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F8F479-1B5E-4514-B2B7-B710B80DDD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02D6951-5139-4411-A6DA-91AA9F0A1673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A591480A-62D0-784E-ADFE-D975E29332B5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A591480A-62D0-784E-ADFE-D975E29332B5}"/>
   </bookViews>
   <sheets>
     <sheet name="BD Final" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'BD Final'!$F$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'BD Final'!$F$2:$F$133</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'BD Final'!$H$2:$H$133</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'BD Final'!$G$2:$G$133</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'BD Final'!$D$2:$D$133</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'BD Final'!$G$2:$G$133</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'BD Final'!$E$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'BD Final'!$E$2:$E$133</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'BD Final'!$H$2:$H$133</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'BD Final'!$F$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'BD Final'!$F$2:$F$133</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'BD Final'!$E$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'BD Final'!$E$2:$E$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="281">
   <si>
     <t>Brazil</t>
   </si>
@@ -879,14 +879,22 @@
   </si>
   <si>
     <t>a probabilidade de encontrar uma pessoa que respondeu 2 ou menos, na curva de felicidade é:</t>
+  </si>
+  <si>
+    <t>Analise Indice</t>
+  </si>
+  <si>
+    <t>BAIXA</t>
+  </si>
+  <si>
+    <t>ALTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  <numFmts count="2">
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
@@ -932,15 +940,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1144,6 +1149,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1164,6 +1174,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1184,6 +1199,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1204,6 +1224,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1224,6 +1249,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1244,6 +1274,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1266,6 +1301,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1288,6 +1328,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1310,6 +1355,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1332,6 +1382,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1354,6 +1409,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -1376,6 +1436,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -1399,6 +1464,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -1422,6 +1492,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -1445,6 +1520,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -1468,6 +1548,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -1491,6 +1576,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -1514,6 +1604,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -1536,6 +1631,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -1558,6 +1658,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -1580,6 +1685,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -1602,6 +1712,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -1624,6 +1739,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
@@ -1646,6 +1766,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -1669,6 +1794,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
@@ -1692,6 +1822,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
@@ -1715,6 +1850,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="27"/>
@@ -1738,6 +1878,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="28"/>
@@ -1761,6 +1906,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="29"/>
@@ -1784,6 +1934,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="30"/>
@@ -1806,6 +1961,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="31"/>
@@ -1828,6 +1988,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="32"/>
@@ -1850,6 +2015,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="33"/>
@@ -1872,6 +2042,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="34"/>
@@ -1894,6 +2069,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="35"/>
@@ -1916,6 +2096,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="36"/>
@@ -1939,6 +2124,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="37"/>
@@ -1962,6 +2152,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="38"/>
@@ -1985,6 +2180,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="39"/>
@@ -2008,6 +2208,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="40"/>
@@ -2031,6 +2236,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="41"/>
@@ -2054,6 +2264,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="42"/>
@@ -2076,6 +2291,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="43"/>
@@ -2098,6 +2318,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="44"/>
@@ -2120,6 +2345,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="45"/>
@@ -2142,6 +2372,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="46"/>
@@ -2164,6 +2399,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="47"/>
@@ -2186,6 +2426,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="48"/>
@@ -2209,6 +2454,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="49"/>
@@ -2232,6 +2482,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000063-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="50"/>
@@ -2255,6 +2510,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000065-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="51"/>
@@ -2278,6 +2538,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000067-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="52"/>
@@ -2301,6 +2566,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000069-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="53"/>
@@ -2324,6 +2594,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006B-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="54"/>
@@ -2344,6 +2619,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006D-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="55"/>
@@ -2364,6 +2644,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006F-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="56"/>
@@ -2384,6 +2669,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000071-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="57"/>
@@ -2404,6 +2694,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000073-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="58"/>
@@ -2424,6 +2719,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000075-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="59"/>
@@ -2444,6 +2744,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000077-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="60"/>
@@ -2466,6 +2771,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000079-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="61"/>
@@ -2488,6 +2798,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007B-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="62"/>
@@ -2510,6 +2825,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007D-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="63"/>
@@ -2532,6 +2852,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007F-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="64"/>
@@ -2554,6 +2879,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000081-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="65"/>
@@ -2576,6 +2906,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000083-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="66"/>
@@ -2599,6 +2934,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000085-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="67"/>
@@ -2622,6 +2962,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000087-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="68"/>
@@ -2645,6 +2990,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000089-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="69"/>
@@ -2668,6 +3018,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008B-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="70"/>
@@ -2691,6 +3046,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008D-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="71"/>
@@ -2714,6 +3074,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008F-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="72"/>
@@ -2736,6 +3101,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000091-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="73"/>
@@ -2758,6 +3128,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000093-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="74"/>
@@ -2780,6 +3155,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000095-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="75"/>
@@ -2802,6 +3182,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000097-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="76"/>
@@ -2824,6 +3209,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000099-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="77"/>
@@ -2846,6 +3236,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009B-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="78"/>
@@ -2869,6 +3264,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009D-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="79"/>
@@ -2892,6 +3292,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009F-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="80"/>
@@ -2915,6 +3320,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A1-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="81"/>
@@ -2938,6 +3348,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A3-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="82"/>
@@ -2961,6 +3376,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A5-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="83"/>
@@ -2984,6 +3404,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A7-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="84"/>
@@ -3006,6 +3431,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A9-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="85"/>
@@ -3028,6 +3458,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000AB-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="86"/>
@@ -3050,6 +3485,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000AD-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="87"/>
@@ -3072,6 +3512,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000AF-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="88"/>
@@ -3094,6 +3539,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B1-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="89"/>
@@ -3116,6 +3566,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B3-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="90"/>
@@ -3139,6 +3594,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B5-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="91"/>
@@ -3162,6 +3622,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B7-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="92"/>
@@ -3185,6 +3650,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B9-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="93"/>
@@ -3208,6 +3678,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BB-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="94"/>
@@ -3231,6 +3706,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BD-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="95"/>
@@ -3254,6 +3734,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BF-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="96"/>
@@ -3276,6 +3761,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C1-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="97"/>
@@ -3298,6 +3788,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C3-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="98"/>
@@ -3320,6 +3815,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C5-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="99"/>
@@ -3342,6 +3842,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C7-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="100"/>
@@ -3364,6 +3869,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C9-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="101"/>
@@ -3386,6 +3896,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000CB-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="102"/>
@@ -3409,6 +3924,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000CD-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="103"/>
@@ -3432,6 +3952,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000CF-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="104"/>
@@ -3455,6 +3980,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000D1-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="105"/>
@@ -3478,6 +4008,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000D3-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="106"/>
@@ -3501,6 +4036,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000D5-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="107"/>
@@ -3524,6 +4064,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000D7-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="108"/>
@@ -3544,6 +4089,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000D9-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="109"/>
@@ -3564,6 +4114,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000DB-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="110"/>
@@ -3584,6 +4139,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000DD-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="111"/>
@@ -3604,6 +4164,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000DF-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="112"/>
@@ -3624,6 +4189,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000E1-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="113"/>
@@ -3644,6 +4214,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000E3-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="114"/>
@@ -3666,6 +4241,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000E5-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="115"/>
@@ -3688,6 +4268,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000E7-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="116"/>
@@ -3710,6 +4295,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000E9-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="117"/>
@@ -3732,6 +4322,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000EB-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="118"/>
@@ -3754,6 +4349,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000ED-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="119"/>
@@ -3776,6 +4376,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000EF-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="120"/>
@@ -3799,6 +4404,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000F1-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="121"/>
@@ -3822,6 +4432,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000F3-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="122"/>
@@ -3845,6 +4460,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000F5-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="123"/>
@@ -3868,6 +4488,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000F7-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="124"/>
@@ -3891,6 +4516,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000F9-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="125"/>
@@ -3914,6 +4544,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000FB-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="126"/>
@@ -3936,6 +4571,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000FD-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="127"/>
@@ -3958,6 +4598,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000FF-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="128"/>
@@ -3980,6 +4625,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000101-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="129"/>
@@ -4002,6 +4652,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000103-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="130"/>
@@ -4024,6 +4679,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000105-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="131"/>
@@ -4046,6 +4706,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000107-F640-4088-A396-7823CC41F96A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4526,7 +5191,7 @@
             <c:numRef>
               <c:f>'BD Final'!$E$2:$E$133</c:f>
               <c:numCache>
-                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="132"/>
                 <c:pt idx="0">
                   <c:v>36103040000</c:v>
@@ -5053,7 +5718,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5125,7 +5790,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5186,7 +5851,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5224,7 +5889,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{60E10D99-FFF3-4C5B-8D50-1EA0B3DDECBB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>Expectativa de Vida (em anos)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5253,7 +5918,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5291,7 +5956,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{9CE73FBA-F23D-46FC-ABAA-86ED032978F4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>PIB</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9119,7 +9784,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="9739539" y="29646709"/>
-              <a:ext cx="4896597" cy="2824256"/>
+              <a:ext cx="5001372" cy="2824256"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9529,10 +10194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6E8B58-1214-AD40-82D1-F7CF9E9F6FA6}">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L116" sqref="L116"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9545,38 +10210,42 @@
     <col min="6" max="6" width="26.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.875" style="1"/>
+    <col min="9" max="9" width="10.875" style="1"/>
+    <col min="10" max="10" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="81.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>274</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -9593,16 +10262,16 @@
       <c r="C2" s="1">
         <v>2019</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>2885012</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>36103040000</v>
       </c>
       <c r="F2" s="2">
         <v>79.282499999999999</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>1970058</v>
       </c>
       <c r="H2" s="2">
@@ -9612,9 +10281,8 @@
         <f>IF(F2&lt;40,"ESTEVÃO","DEPAY")</f>
         <v>DEPAY</v>
       </c>
-      <c r="J2" s="1" t="str">
-        <f>IF(H2&gt;7,"ALTA","BAIXA")</f>
-        <v>BAIXA</v>
+      <c r="J2" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="K2" s="1">
         <f>(H2-$H$136)/$H$137</f>
@@ -9634,16 +10302,16 @@
       <c r="C3" s="1">
         <v>2019</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>43294550</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>507487550000</v>
       </c>
       <c r="F3" s="2">
         <v>76.474199999999996</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>24726411</v>
       </c>
       <c r="H3" s="2">
@@ -9653,12 +10321,11 @@
         <f t="shared" ref="I3:I66" si="0">IF(F3&lt;40,"ESTEVÃO","DEPAY")</f>
         <v>DEPAY</v>
       </c>
-      <c r="J3" s="1" t="str">
-        <f t="shared" ref="J3:J66" si="1">IF(H3&gt;7,"ALTA","BAIXA")</f>
-        <v>BAIXA</v>
+      <c r="J3" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K66" si="2">(H3-$H$136)/$H$137</f>
+        <f t="shared" ref="K3:K66" si="1">(H3-$H$136)/$H$137</f>
         <v>-0.4955616026909499</v>
       </c>
     </row>
@@ -9672,16 +10339,16 @@
       <c r="C4" s="1">
         <v>2019</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>44973468</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>977420550000</v>
       </c>
       <c r="F4" s="2">
         <v>77.284499999999994</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>35751668</v>
       </c>
       <c r="H4" s="2">
@@ -9691,12 +10358,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J4" s="1" t="str">
+      <c r="J4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="2"/>
         <v>0.38542456495024796</v>
       </c>
     </row>
@@ -9710,16 +10376,16 @@
       <c r="C5" s="1">
         <v>2019</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>2903975</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>43582575000</v>
       </c>
       <c r="F5" s="2">
         <v>75.438599999999994</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>1876941</v>
       </c>
       <c r="H5" s="2">
@@ -9729,12 +10395,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="2"/>
         <v>-0.79385755858678808</v>
       </c>
     </row>
@@ -9748,16 +10413,16 @@
       <c r="C6" s="1">
         <v>2019</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>25482714</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1364677800000</v>
       </c>
       <c r="F6" s="2">
         <v>83.11</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>22466450</v>
       </c>
       <c r="H6" s="2">
@@ -9767,12 +10432,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="J6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="2"/>
         <v>1.5194580177482866</v>
       </c>
     </row>
@@ -9786,16 +10450,16 @@
       <c r="C7" s="1">
         <v>2019</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>8880875</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>477705500000</v>
       </c>
       <c r="F7" s="2">
         <v>81.907700000000006</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>7792342</v>
       </c>
       <c r="H7" s="2">
@@ -9805,12 +10469,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="J7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="2"/>
         <v>1.5843326179644388</v>
       </c>
     </row>
@@ -9824,16 +10487,16 @@
       <c r="C8" s="1">
         <v>2019</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>10110486</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>159346000000</v>
       </c>
       <c r="F8" s="2">
         <v>73.1023</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>8298769</v>
       </c>
       <c r="H8" s="2">
@@ -9843,12 +10506,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="2"/>
         <v>-0.35045692965846315</v>
       </c>
     </row>
@@ -9862,16 +10524,16 @@
       <c r="C9" s="1">
         <v>2019</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>1485675</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>77077610000</v>
       </c>
       <c r="F9" s="2">
         <v>80.018600000000006</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>1489735</v>
       </c>
       <c r="H9" s="2">
@@ -9881,12 +10543,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="2"/>
         <v>0.6149389068914255</v>
       </c>
     </row>
@@ -9900,16 +10561,16 @@
       <c r="C10" s="1">
         <v>2019</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>164913060</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>759470600000</v>
       </c>
       <c r="F10" s="2">
         <v>72.805700000000002</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>39392860</v>
       </c>
       <c r="H10" s="2">
@@ -9919,12 +10580,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="J10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="2"/>
         <v>-0.6521147345851106</v>
       </c>
     </row>
@@ -9938,16 +10598,16 @@
       <c r="C11" s="1">
         <v>2019</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>9435414</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>204795350000</v>
       </c>
       <c r="F11" s="2">
         <v>74.215999999999994</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>8008999</v>
       </c>
       <c r="H11" s="2">
@@ -9957,12 +10617,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="J11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="2"/>
         <v>-9.6381265621206646E-3</v>
       </c>
     </row>
@@ -9976,16 +10635,16 @@
       <c r="C12" s="1">
         <v>2019</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>11490622</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>517419760000</v>
       </c>
       <c r="F12" s="2">
         <v>81.831100000000006</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>10391216</v>
       </c>
       <c r="H12" s="2">
@@ -9995,12 +10654,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="J12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="2"/>
         <v>1.1929952186213453</v>
       </c>
     </row>
@@ -10014,16 +10672,16 @@
       <c r="C13" s="1">
         <v>2019</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>12726761</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>38295495000</v>
       </c>
       <c r="F13" s="2">
         <v>60.453699999999998</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>2753059</v>
       </c>
       <c r="H13" s="2">
@@ -10033,12 +10691,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="J13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="2"/>
         <v>-0.30393620793483506</v>
       </c>
     </row>
@@ -10052,16 +10709,16 @@
       <c r="C14" s="1">
         <v>2019</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>11671386</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>98835710000</v>
       </c>
       <c r="F14" s="2">
         <v>67.840999999999994</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>5591260</v>
       </c>
       <c r="H14" s="2">
@@ -10071,12 +10728,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J14" s="1" t="str">
+      <c r="J14" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="2"/>
         <v>0.17898886230164993</v>
       </c>
     </row>
@@ -10090,16 +10746,16 @@
       <c r="C15" s="1">
         <v>2019</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>3345534</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>45538427000</v>
       </c>
       <c r="F15" s="2">
         <v>77.241200000000006</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>2350700</v>
       </c>
       <c r="H15" s="2">
@@ -10109,12 +10765,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J15" s="1" t="str">
+      <c r="J15" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K15" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="2"/>
         <v>0.11229704639316869</v>
       </c>
     </row>
@@ -10128,16 +10783,16 @@
       <c r="C16" s="1">
         <v>2019</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>2332081</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>37975007000</v>
       </c>
       <c r="F16" s="2">
         <v>65.4636</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>1524820</v>
       </c>
       <c r="H16" s="2">
@@ -10147,12 +10802,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J16" s="1" t="str">
+      <c r="J16" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K16" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="2"/>
         <v>-1.8822788975073639</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -10169,16 +10823,16 @@
       <c r="C17" s="1">
         <v>2019</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>207455459</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>3080048600000</v>
       </c>
       <c r="F17" s="2">
         <v>75.337900000000005</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>156533889</v>
       </c>
       <c r="H17" s="2">
@@ -10188,12 +10842,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J17" s="1" t="str">
+      <c r="J17" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="2"/>
         <v>0.74968545047763657</v>
       </c>
       <c r="L17" s="1">
@@ -10211,16 +10864,16 @@
       <c r="C18" s="1">
         <v>2019</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>6975467</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>149432420000</v>
       </c>
       <c r="F18" s="2">
         <v>75.062399999999997</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>4791985</v>
       </c>
       <c r="H18" s="2">
@@ -10230,12 +10883,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J18" s="1" t="str">
+      <c r="J18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K18" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="2"/>
         <v>-0.40797180632068231</v>
       </c>
     </row>
@@ -10249,16 +10901,16 @@
       <c r="C19" s="1">
         <v>2019</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>20961954</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>43084153000</v>
       </c>
       <c r="F19" s="2">
         <v>60.039099999999998</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>3771295</v>
       </c>
       <c r="H19" s="2">
@@ -10268,15 +10920,14 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J19" s="1" t="str">
+      <c r="J19" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K19" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="2"/>
         <v>-0.71035649752426133</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <f>_xlfn.NORM.DIST(3,H136,H137,TRUE)</f>
         <v>1.0240671543941829E-2</v>
       </c>
@@ -10291,16 +10942,16 @@
       <c r="C20" s="1">
         <v>2019</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>12255339</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>9109688000</v>
       </c>
       <c r="F20" s="2">
         <v>62.351399999999998</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>736240</v>
       </c>
       <c r="H20" s="2">
@@ -10310,12 +10961,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J20" s="1" t="str">
+      <c r="J20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K20" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="2"/>
         <v>-1.6129675319041759</v>
       </c>
     </row>
@@ -10329,16 +10979,16 @@
       <c r="C21" s="1">
         <v>2019</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>25506096</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>94487530000</v>
       </c>
       <c r="F21" s="2">
         <v>61.5839</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>8637085</v>
       </c>
       <c r="H21" s="2">
@@ -10348,12 +10998,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J21" s="1" t="str">
+      <c r="J21" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K21" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="2"/>
         <v>-0.42305469656701422</v>
       </c>
     </row>
@@ -10367,16 +11016,16 @@
       <c r="C22" s="1">
         <v>2019</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>37782931</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>1866214900000</v>
       </c>
       <c r="F22" s="2">
         <v>82.362799999999993</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>36209294</v>
       </c>
       <c r="H22" s="2">
@@ -10386,12 +11035,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J22" s="1" t="str">
+      <c r="J22" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K22" s="1">
         <f t="shared" si="1"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="2"/>
         <v>1.5279080707176171</v>
       </c>
     </row>
@@ -10405,16 +11053,16 @@
       <c r="C23" s="1">
         <v>2019</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>4944707</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>4642449000</v>
       </c>
       <c r="F23" s="2">
         <v>55.025300000000001</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>432374</v>
       </c>
       <c r="H23" s="2">
@@ -10424,12 +11072,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J23" s="1" t="str">
+      <c r="J23" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K23" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="2"/>
         <v>-1.8850047210458574</v>
       </c>
     </row>
@@ -10443,16 +11090,16 @@
       <c r="C24" s="1">
         <v>2019</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>16685223</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>25755519000</v>
       </c>
       <c r="F24" s="2">
         <v>53.259399999999999</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>1580433</v>
       </c>
       <c r="H24" s="2">
@@ -10462,12 +11109,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J24" s="1" t="str">
+      <c r="J24" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K24" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="2"/>
         <v>-1.0247348122972133</v>
       </c>
     </row>
@@ -10481,16 +11127,16 @@
       <c r="C25" s="1">
         <v>2019</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>19197747</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>440683330000</v>
       </c>
       <c r="F25" s="2">
         <v>80.326300000000003</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>16392995</v>
       </c>
       <c r="H25" s="2">
@@ -10500,12 +11146,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J25" s="1" t="str">
+      <c r="J25" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K25" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="2"/>
         <v>0.61602923630682371</v>
       </c>
     </row>
@@ -10519,16 +11164,16 @@
       <c r="C26" s="1">
         <v>2019</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>1423520354</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>20257660000000</v>
       </c>
       <c r="F26" s="2">
         <v>77.968000000000004</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>911554782</v>
       </c>
       <c r="H26" s="2">
@@ -10538,12 +11183,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J26" s="1" t="str">
+      <c r="J26" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K26" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="2"/>
         <v>-0.38761899056659505</v>
       </c>
     </row>
@@ -10557,16 +11201,16 @@
       <c r="C27" s="1">
         <v>2019</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>49907987</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>707659600000</v>
       </c>
       <c r="F27" s="2">
         <v>76.752300000000005</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>32625274</v>
       </c>
       <c r="H27" s="2">
@@ -10576,12 +11220,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J27" s="1" t="str">
+      <c r="J27" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K27" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="2"/>
         <v>0.55687886552150812</v>
       </c>
     </row>
@@ -10595,16 +11238,16 @@
       <c r="C28" s="1">
         <v>2019</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>4999551</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>93491830000</v>
       </c>
       <c r="F28" s="2">
         <v>79.427199999999999</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>4128768</v>
       </c>
       <c r="H28" s="2">
@@ -10614,12 +11257,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J28" s="1" t="str">
+      <c r="J28" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K28" s="1">
         <f t="shared" si="1"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="2"/>
         <v>1.4273251821471962</v>
       </c>
     </row>
@@ -10633,16 +11275,16 @@
       <c r="C29" s="1">
         <v>2019</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>28193014</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>129491770000</v>
       </c>
       <c r="F29" s="2">
         <v>59.3185</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>9488671</v>
       </c>
       <c r="H29" s="2">
@@ -10652,12 +11294,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J29" s="1" t="str">
+      <c r="J29" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="2"/>
         <v>-0.28821729219618775</v>
       </c>
     </row>
@@ -10671,16 +11312,16 @@
       <c r="C30" s="1">
         <v>2019</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>3986338</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>107392040000</v>
       </c>
       <c r="F30" s="2">
         <v>78.7376</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>3265796</v>
       </c>
       <c r="H30" s="2">
@@ -10690,12 +11331,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J30" s="1" t="str">
+      <c r="J30" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="2"/>
         <v>-4.1621122747115137E-2</v>
       </c>
     </row>
@@ -10709,16 +11349,16 @@
       <c r="C31" s="1">
         <v>2019</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>1286669</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>28053969000</v>
       </c>
       <c r="F31" s="2">
         <v>81.397000000000006</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <v>1057584</v>
       </c>
       <c r="H31" s="2">
@@ -10728,12 +11368,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J31" s="1" t="str">
+      <c r="J31" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="2"/>
         <v>0.5528809909983835</v>
       </c>
     </row>
@@ -10747,16 +11386,16 @@
       <c r="C32" s="1">
         <v>2019</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>10554871</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>401072230000</v>
       </c>
       <c r="F32" s="2">
         <v>79.243300000000005</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>8520850</v>
       </c>
       <c r="H32" s="2">
@@ -10766,12 +11405,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J32" s="1" t="str">
+      <c r="J32" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K32" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="2"/>
         <v>1.2360632305295471</v>
       </c>
     </row>
@@ -10785,16 +11423,16 @@
       <c r="C33" s="1">
         <v>2019</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>92947450</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>88673380000</v>
       </c>
       <c r="F33" s="2">
         <v>60.275700000000001</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>11238362</v>
       </c>
       <c r="H33" s="2">
@@ -10804,12 +11442,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J33" s="1" t="str">
+      <c r="J33" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K33" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="2"/>
         <v>-1.1262263087137991</v>
       </c>
     </row>
@@ -10823,16 +11460,16 @@
       <c r="C34" s="1">
         <v>2019</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>5814619</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>311838000000</v>
       </c>
       <c r="F34" s="2">
         <v>81.433700000000002</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <v>5682653</v>
       </c>
       <c r="H34" s="2">
@@ -10842,12 +11479,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J34" s="1" t="str">
+      <c r="J34" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K34" s="1">
         <f t="shared" si="1"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="2"/>
         <v>1.9036174151066796</v>
       </c>
     </row>
@@ -10861,16 +11497,16 @@
       <c r="C35" s="1">
         <v>2019</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>10894043</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>192514500000</v>
       </c>
       <c r="F35" s="2">
         <v>73.576700000000002</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>8248470</v>
       </c>
       <c r="H35" s="2">
@@ -10880,12 +11516,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J35" s="1" t="str">
+      <c r="J35" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K35" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="2"/>
         <v>0.12601702487025365</v>
       </c>
     </row>
@@ -10899,16 +11534,16 @@
       <c r="C36" s="1">
         <v>2019</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>17340017</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>195204020000</v>
       </c>
       <c r="F36" s="2">
         <v>77.2971</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <v>10683745</v>
       </c>
       <c r="H36" s="2">
@@ -10918,12 +11553,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J36" s="1" t="str">
+      <c r="J36" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K36" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" si="2"/>
         <v>0.34044847656510013</v>
       </c>
     </row>
@@ -10937,16 +11571,16 @@
       <c r="C37" s="1">
         <v>2019</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>107553159</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>1210669700000</v>
       </c>
       <c r="F37" s="2">
         <v>71.357500000000002</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <v>60501404</v>
       </c>
       <c r="H37" s="2">
@@ -10956,12 +11590,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J37" s="1" t="str">
+      <c r="J37" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K37" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="2"/>
         <v>-1.2712401209616697</v>
       </c>
     </row>
@@ -10975,16 +11608,16 @@
       <c r="C38" s="1">
         <v>2019</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>6222316</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>52378770000</v>
       </c>
       <c r="F38" s="2">
         <v>72.558599999999998</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <v>3170959</v>
       </c>
       <c r="H38" s="2">
@@ -10994,12 +11627,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J38" s="1" t="str">
+      <c r="J38" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="2"/>
         <v>0.72488045627734266</v>
       </c>
     </row>
@@ -11013,16 +11645,16 @@
       <c r="C39" s="1">
         <v>2019</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>1326821</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>44876350000</v>
       </c>
       <c r="F39" s="2">
         <v>78.669300000000007</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <v>1197373</v>
       </c>
       <c r="H39" s="2">
@@ -11032,12 +11664,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J39" s="1" t="str">
+      <c r="J39" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K39" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="2"/>
         <v>0.42821999450460019</v>
       </c>
     </row>
@@ -11051,16 +11682,16 @@
       <c r="C40" s="1">
         <v>2019</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>115737385</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>304937200000</v>
       </c>
       <c r="F40" s="2">
         <v>65.837699999999998</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="4">
         <v>25106530</v>
       </c>
       <c r="H40" s="2">
@@ -11070,12 +11701,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J40" s="1" t="str">
+      <c r="J40" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="2"/>
         <v>-1.2396205679151411</v>
       </c>
     </row>
@@ -11089,16 +11719,16 @@
       <c r="C41" s="1">
         <v>2019</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>5521755</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>248551540000</v>
       </c>
       <c r="F41" s="2">
         <v>81.870599999999996</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <v>4947707</v>
       </c>
       <c r="H41" s="2">
@@ -11108,12 +11738,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J41" s="1" t="str">
+      <c r="J41" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K41" s="1">
         <f t="shared" si="1"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K41" s="1">
-        <f t="shared" si="2"/>
         <v>2.0518113548161261</v>
       </c>
     </row>
@@ -11127,16 +11756,16 @@
       <c r="C42" s="1">
         <v>2019</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>65729460</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>2946958400000</v>
       </c>
       <c r="F42" s="2">
         <v>82.731499999999997</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="4">
         <v>53670595</v>
       </c>
       <c r="H42" s="2">
@@ -11146,12 +11775,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J42" s="1" t="str">
+      <c r="J42" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K42" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="2"/>
         <v>1.0115462317422743</v>
       </c>
     </row>
@@ -11165,16 +11793,16 @@
       <c r="C43" s="1">
         <v>2019</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>2267710</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>33658085000</v>
       </c>
       <c r="F43" s="2">
         <v>66.602800000000002</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <v>1368101</v>
       </c>
       <c r="H43" s="2">
@@ -11184,12 +11812,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J43" s="1" t="str">
+      <c r="J43" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K43" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="2"/>
         <v>-0.65529486204668652</v>
       </c>
     </row>
@@ -11203,16 +11830,16 @@
       <c r="C44" s="1">
         <v>2019</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>2456847</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>5655293000</v>
       </c>
       <c r="F44" s="2">
         <v>63.754899999999999</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="4">
         <v>865564</v>
       </c>
       <c r="H44" s="2">
@@ -11222,12 +11849,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J44" s="1" t="str">
+      <c r="J44" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K44" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="2"/>
         <v>-0.72680229953984021</v>
       </c>
     </row>
@@ -11241,16 +11867,16 @@
       <c r="C45" s="1">
         <v>2019</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>3796721</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>68167483000</v>
       </c>
       <c r="F45" s="2">
         <v>73.4696</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="4">
         <v>2596081</v>
       </c>
       <c r="H45" s="2">
@@ -11260,12 +11886,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J45" s="1" t="str">
+      <c r="J45" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K45" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K45" s="1">
-        <f t="shared" si="2"/>
         <v>-0.79767371154067934</v>
       </c>
     </row>
@@ -11279,16 +11904,16 @@
       <c r="C46" s="1">
         <v>2019</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>83559185</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>4275312000000</v>
       </c>
       <c r="F46" s="2">
         <v>81.558400000000006</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="4">
         <v>73282212</v>
       </c>
       <c r="H46" s="2">
@@ -11298,12 +11923,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J46" s="1" t="str">
+      <c r="J46" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K46" s="1">
         <f t="shared" si="1"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K46" s="1">
-        <f t="shared" si="2"/>
         <v>1.3858926643620899</v>
       </c>
     </row>
@@ -11317,16 +11941,16 @@
       <c r="C47" s="1">
         <v>2019</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>31258942</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>163139160000</v>
       </c>
       <c r="F47" s="2">
         <v>64.740099999999998</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="4">
         <v>16706816</v>
       </c>
       <c r="H47" s="2">
@@ -11336,12 +11960,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J47" s="1" t="str">
+      <c r="J47" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K47" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K47" s="1">
-        <f t="shared" si="2"/>
         <v>-0.36572154147402836</v>
       </c>
     </row>
@@ -11355,16 +11978,16 @@
       <c r="C48" s="1">
         <v>2019</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>10718580</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>284893600000</v>
       </c>
       <c r="F48" s="2">
         <v>81.248900000000006</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="4">
         <v>8001493</v>
       </c>
       <c r="H48" s="2">
@@ -11374,12 +11997,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J48" s="1" t="str">
+      <c r="J48" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K48" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" si="2"/>
         <v>-3.2262461931619767E-2</v>
       </c>
     </row>
@@ -11393,16 +12015,16 @@
       <c r="C49" s="1">
         <v>2019</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>17103802</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>136605020000</v>
       </c>
       <c r="F49" s="2">
         <v>73.128900000000002</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <v>7595394</v>
       </c>
       <c r="H49" s="2">
@@ -11412,12 +12034,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J49" s="1" t="str">
+      <c r="J49" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K49" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K49" s="1">
-        <f t="shared" si="2"/>
         <v>0.77085601329327169</v>
       </c>
     </row>
@@ -11431,16 +12052,16 @@
       <c r="C50" s="1">
         <v>2019</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>13034349</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>29205352000</v>
       </c>
       <c r="F50" s="2">
         <v>59.719900000000003</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="4">
         <v>2961834</v>
       </c>
       <c r="H50" s="2">
@@ -11450,12 +12071,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J50" s="1" t="str">
+      <c r="J50" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K50" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="2"/>
         <v>-0.54626192050693434</v>
       </c>
     </row>
@@ -11469,16 +12089,16 @@
       <c r="C51" s="1">
         <v>2019</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>11105164</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>17503060000</v>
       </c>
       <c r="F51" s="2">
         <v>64.254599999999996</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="4">
         <v>3716427</v>
       </c>
       <c r="H51" s="2">
@@ -11488,12 +12108,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J51" s="1" t="str">
+      <c r="J51" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K51" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="2"/>
         <v>-1.6624866595201466</v>
       </c>
     </row>
@@ -11507,16 +12126,16 @@
       <c r="C52" s="1">
         <v>2019</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>9943637</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>52902540000</v>
       </c>
       <c r="F52" s="2">
         <v>72.881100000000004</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="4">
         <v>3922620</v>
       </c>
       <c r="H52" s="2">
@@ -11526,12 +12145,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J52" s="1" t="str">
+      <c r="J52" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K52" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="2"/>
         <v>0.36588949625770856</v>
       </c>
     </row>
@@ -11545,16 +12163,16 @@
       <c r="C53" s="1">
         <v>2019</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>7485816</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>407575760000</v>
       </c>
       <c r="F53" s="2">
         <v>85.273499999999999</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="4">
         <v>6877196</v>
       </c>
       <c r="H53" s="2">
@@ -11564,12 +12182,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J53" s="1" t="str">
+      <c r="J53" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K53" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="2"/>
         <v>-3.6442058023976875E-2</v>
       </c>
     </row>
@@ -11583,16 +12200,16 @@
       <c r="C54" s="1">
         <v>2019</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>9770346</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>283145140000</v>
       </c>
       <c r="F54" s="2">
         <v>76.454300000000003</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="4">
         <v>7853761</v>
       </c>
       <c r="H54" s="2">
@@ -11602,12 +12219,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J54" s="1" t="str">
+      <c r="J54" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K54" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" si="2"/>
         <v>0.40877578659667785</v>
       </c>
     </row>
@@ -11621,16 +12237,16 @@
       <c r="C55" s="1">
         <v>2019</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>360709</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>17972625000</v>
       </c>
       <c r="F55" s="2">
         <v>82.404200000000003</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="4">
         <v>357179</v>
       </c>
       <c r="H55" s="2">
@@ -11640,12 +12256,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J55" s="1" t="str">
+      <c r="J55" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K55" s="1">
         <f t="shared" si="1"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K55" s="1">
-        <f t="shared" si="2"/>
         <v>1.7754128480128546</v>
       </c>
     </row>
@@ -11659,16 +12274,16 @@
       <c r="C56" s="1">
         <v>2019</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>1389030303</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>9170555000000</v>
       </c>
       <c r="F56" s="2">
         <v>70.909800000000004</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="4">
         <v>406634942</v>
       </c>
       <c r="H56" s="2">
@@ -11678,12 +12293,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J56" s="1" t="str">
+      <c r="J56" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K56" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="2"/>
         <v>-1.7965063168294253</v>
       </c>
     </row>
@@ -11697,16 +12311,16 @@
       <c r="C57" s="1">
         <v>2019</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>272489379</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>3137931000000</v>
       </c>
       <c r="F57" s="2">
         <v>70.5184</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="4">
         <v>128565820</v>
       </c>
       <c r="H57" s="2">
@@ -11716,12 +12330,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J57" s="1" t="str">
+      <c r="J57" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K57" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" si="2"/>
         <v>-0.24069710184177931</v>
       </c>
     </row>
@@ -11735,16 +12348,16 @@
       <c r="C58" s="1">
         <v>2019</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>87051647</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>1097856650000</v>
       </c>
       <c r="F58" s="2">
         <v>76.103099999999998</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="4">
         <v>67321708</v>
       </c>
       <c r="H58" s="2">
@@ -11754,12 +12367,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J58" s="1" t="str">
+      <c r="J58" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K58" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K58" s="1">
-        <f t="shared" si="2"/>
         <v>-0.79785543310991269</v>
       </c>
     </row>
@@ -11773,16 +12385,16 @@
       <c r="C59" s="1">
         <v>2019</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>41192172</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>468582530000</v>
       </c>
       <c r="F59" s="2">
         <v>71.576400000000007</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="4">
         <v>24938114</v>
       </c>
       <c r="H59" s="2">
@@ -11792,12 +12404,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J59" s="1" t="str">
+      <c r="J59" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K59" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K59" s="1">
-        <f t="shared" si="2"/>
         <v>-0.69572791120101141</v>
       </c>
     </row>
@@ -11811,16 +12422,16 @@
       <c r="C60" s="1">
         <v>2019</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>4933491</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>501053600000</v>
       </c>
       <c r="F60" s="2">
         <v>82.258600000000001</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="4">
         <v>4259541</v>
       </c>
       <c r="H60" s="2">
@@ -11830,12 +12441,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J60" s="1" t="str">
+      <c r="J60" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K60" s="1">
         <f t="shared" si="1"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K60" s="1">
-        <f t="shared" si="2"/>
         <v>1.4021567448084364</v>
       </c>
     </row>
@@ -11849,16 +12459,16 @@
       <c r="C61" s="1">
         <v>2019</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <v>8657466</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <v>328529540000</v>
       </c>
       <c r="F61" s="2">
         <v>82.812299999999993</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="4">
         <v>7470633</v>
       </c>
       <c r="H61" s="2">
@@ -11868,12 +12478,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J61" s="1" t="str">
+      <c r="J61" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K61" s="1">
         <f t="shared" si="1"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K61" s="1">
-        <f t="shared" si="2"/>
         <v>1.4338671586395806</v>
       </c>
     </row>
@@ -11887,16 +12496,16 @@
       <c r="C62" s="1">
         <v>2019</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <v>60130136</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>2466327600000</v>
       </c>
       <c r="F62" s="2">
         <v>83.552000000000007</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="4">
         <v>45452958</v>
       </c>
       <c r="H62" s="2">
@@ -11906,12 +12515,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J62" s="1" t="str">
+      <c r="J62" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K62" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K62" s="1">
-        <f t="shared" si="2"/>
         <v>0.76040702306237895</v>
       </c>
     </row>
@@ -11925,16 +12533,16 @@
       <c r="C63" s="1">
         <v>2019</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>126699422</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>5036891000000</v>
       </c>
       <c r="F63" s="2">
         <v>84.425799999999995</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="4">
         <v>116647128</v>
       </c>
       <c r="H63" s="2">
@@ -11944,12 +12552,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J63" s="1" t="str">
+      <c r="J63" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K63" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K63" s="1">
-        <f t="shared" si="2"/>
         <v>0.29102020973374559</v>
       </c>
     </row>
@@ -11963,16 +12570,16 @@
       <c r="C64" s="1">
         <v>2019</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>19209556</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>525124080000</v>
       </c>
       <c r="F64" s="2">
         <v>71.567499999999995</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="4">
         <v>15355541</v>
       </c>
       <c r="H64" s="2">
@@ -11982,12 +12589,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J64" s="1" t="str">
+      <c r="J64" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K64" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K64" s="1">
-        <f t="shared" si="2"/>
         <v>0.4610207377511425</v>
       </c>
     </row>
@@ -12001,16 +12607,16 @@
       <c r="C65" s="1">
         <v>2019</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>51202829</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>222738460000</v>
       </c>
       <c r="F65" s="2">
         <v>62.943199999999997</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="4">
         <v>11497256</v>
       </c>
       <c r="H65" s="2">
@@ -12020,12 +12626,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J65" s="1" t="str">
+      <c r="J65" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K65" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K65" s="1">
-        <f t="shared" si="2"/>
         <v>-0.8790849745570275</v>
       </c>
     </row>
@@ -12039,16 +12644,16 @@
       <c r="C66" s="1">
         <v>2019</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>4442202</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <v>261068540000</v>
       </c>
       <c r="F66" s="2">
         <v>79.685000000000002</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="4">
         <v>4420795</v>
       </c>
       <c r="H66" s="2">
@@ -12058,12 +12663,11 @@
         <f t="shared" si="0"/>
         <v>DEPAY</v>
       </c>
-      <c r="J66" s="1" t="str">
+      <c r="J66" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K66" s="1">
         <f t="shared" si="1"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K66" s="1">
-        <f t="shared" si="2"/>
         <v>0.50118120455161785</v>
       </c>
     </row>
@@ -12077,31 +12681,30 @@
       <c r="C67" s="1">
         <v>2019</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <v>6494036</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="2">
         <v>39366726000</v>
       </c>
       <c r="F67" s="2">
         <v>71.230099999999993</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="4">
         <v>3225058</v>
       </c>
       <c r="H67" s="2">
         <v>5.5415000000000001</v>
       </c>
       <c r="I67" s="1" t="str">
-        <f t="shared" ref="I67:I130" si="3">IF(F67&lt;40,"ESTEVÃO","DEPAY")</f>
+        <f t="shared" ref="I67:I130" si="2">IF(F67&lt;40,"ESTEVÃO","DEPAY")</f>
         <v>DEPAY</v>
       </c>
-      <c r="J67" s="1" t="str">
-        <f t="shared" ref="J67:J130" si="4">IF(H67&gt;7,"ALTA","BAIXA")</f>
-        <v>BAIXA</v>
+      <c r="J67" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" ref="K67:K130" si="5">(H67-$H$136)/$H$137</f>
+        <f t="shared" ref="K67:K130" si="3">(H67-$H$136)/$H$137</f>
         <v>-8.1843540082574637E-3</v>
       </c>
     </row>
@@ -12115,31 +12718,30 @@
       <c r="C68" s="1">
         <v>2019</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <v>7237634</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>54384284000</v>
       </c>
       <c r="F68" s="2">
         <v>68.138199999999998</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="4">
         <v>2224199</v>
       </c>
       <c r="H68" s="2">
         <v>4.8886000000000003</v>
       </c>
       <c r="I68" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K68" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J68" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K68" s="1">
-        <f t="shared" si="5"/>
         <v>-0.60141441676912533</v>
       </c>
     </row>
@@ -12153,31 +12755,30 @@
       <c r="C69" s="1">
         <v>2019</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>1914267</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <v>56079446000</v>
       </c>
       <c r="F69" s="2">
         <v>75.533699999999996</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="4">
         <v>1650831</v>
       </c>
       <c r="H69" s="2">
         <v>5.95</v>
       </c>
       <c r="I69" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K69" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J69" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K69" s="1">
-        <f t="shared" si="5"/>
         <v>0.36298195114998216</v>
       </c>
     </row>
@@ -12191,31 +12792,30 @@
       <c r="C70" s="1">
         <v>2019</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>5794600</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <v>101120850000</v>
       </c>
       <c r="F70" s="2">
         <v>79.235900000000001</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="4">
         <v>4677567</v>
       </c>
       <c r="H70" s="2">
         <v>4.7714999999999996</v>
       </c>
       <c r="I70" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K70" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J70" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K70" s="1">
-        <f t="shared" si="5"/>
         <v>-0.70781239555500075</v>
       </c>
     </row>
@@ -12229,31 +12829,30 @@
       <c r="C71" s="1">
         <v>2019</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>2209414</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
         <v>5727321000</v>
       </c>
       <c r="F71" s="2">
         <v>54.172600000000003</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="4">
         <v>941514</v>
       </c>
       <c r="H71" s="2">
         <v>3.6528</v>
       </c>
       <c r="I71" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K71" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J71" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K71" s="1">
-        <f t="shared" si="5"/>
         <v>-1.7242719930593395</v>
       </c>
     </row>
@@ -12267,31 +12866,30 @@
       <c r="C72" s="1">
         <v>2019</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <v>5043720</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="2">
         <v>6212169700</v>
       </c>
       <c r="F72" s="2">
         <v>61.104399999999998</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="4">
         <v>1096764</v>
       </c>
       <c r="H72" s="2">
         <v>4.5579000000000001</v>
       </c>
       <c r="I72" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K72" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J72" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K72" s="1">
-        <f t="shared" si="5"/>
         <v>-0.90189103149575911</v>
       </c>
     </row>
@@ -12305,31 +12903,30 @@
       <c r="C73" s="1">
         <v>2019</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <v>2795057</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="2">
         <v>89642180000</v>
       </c>
       <c r="F73" s="2">
         <v>76.2119</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="4">
         <v>2324335</v>
       </c>
       <c r="H73" s="2">
         <v>6.2154999999999996</v>
       </c>
       <c r="I73" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K73" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J73" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K73" s="1">
-        <f t="shared" si="5"/>
         <v>0.60421733430668323</v>
       </c>
     </row>
@@ -12343,31 +12940,30 @@
       <c r="C74" s="1">
         <v>2019</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="4">
         <v>620166</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>55710794000</v>
       </c>
       <c r="F74" s="2">
         <v>82.1434</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74" s="4">
         <v>602129</v>
       </c>
       <c r="H74" s="2">
         <v>7.2374999999999998</v>
       </c>
       <c r="I74" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K74" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J74" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K74" s="1">
-        <f t="shared" si="5"/>
         <v>1.5328145530869057</v>
       </c>
     </row>
@@ -12381,31 +12977,30 @@
       <c r="C75" s="1">
         <v>2019</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <v>19025748</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="2">
         <v>21635066000</v>
       </c>
       <c r="F75" s="2">
         <v>64.118799999999993</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="4">
         <v>1867867</v>
       </c>
       <c r="H75" s="2">
         <v>3.5379999999999998</v>
       </c>
       <c r="I75" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K75" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J75" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K75" s="1">
-        <f t="shared" si="5"/>
         <v>-1.8285801737990359</v>
       </c>
     </row>
@@ -12419,31 +13014,30 @@
       <c r="C76" s="1">
         <v>2019</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <v>33440588</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="2">
         <v>822237400000</v>
       </c>
       <c r="F76" s="2">
         <v>75.760300000000001</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="4">
         <v>27616770</v>
       </c>
       <c r="H76" s="2">
         <v>5.3842999999999996</v>
       </c>
       <c r="I76" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K76" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J76" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K76" s="1">
-        <f t="shared" si="5"/>
         <v>-0.15101750742533315</v>
       </c>
     </row>
@@ -12457,31 +13051,30 @@
       <c r="C77" s="1">
         <v>2019</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <v>487737</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <v>10306475000</v>
       </c>
       <c r="F77" s="2">
         <v>80.116</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="4">
         <v>315324</v>
       </c>
       <c r="H77" s="2">
         <v>5.1976000000000004</v>
       </c>
       <c r="I77" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K77" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J77" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K77" s="1">
-        <f t="shared" si="5"/>
         <v>-0.32065459230426346</v>
       </c>
     </row>
@@ -12495,31 +13088,30 @@
       <c r="C78" s="1">
         <v>2019</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>21068406</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="2">
         <v>48087626000</v>
       </c>
       <c r="F78" s="2">
         <v>59.663699999999999</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="4">
         <v>4977318</v>
       </c>
       <c r="H78" s="2">
         <v>4.7293000000000003</v>
       </c>
       <c r="I78" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K78" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J78" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K78" s="1">
-        <f t="shared" si="5"/>
         <v>-0.74615564666314627</v>
       </c>
     </row>
@@ -12533,31 +13125,30 @@
       <c r="C79" s="1">
         <v>2019</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>504017</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="2">
         <v>17134908000</v>
       </c>
       <c r="F79" s="2">
         <v>83.206500000000005</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="4">
         <v>432020</v>
       </c>
       <c r="H79" s="2">
         <v>6.7728000000000002</v>
       </c>
       <c r="I79" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K79" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J79" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K79" s="1">
-        <f t="shared" si="5"/>
         <v>1.1105844869742159</v>
       </c>
     </row>
@@ -12571,31 +13162,30 @@
       <c r="C80" s="1">
         <v>2019</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <v>4467714</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <v>21162975000</v>
       </c>
       <c r="F80" s="2">
         <v>65.686899999999994</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="4">
         <v>1608874</v>
       </c>
       <c r="H80" s="2">
         <v>4.3746</v>
       </c>
       <c r="I80" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K80" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J80" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K80" s="1">
-        <f t="shared" si="5"/>
         <v>-1.0684388496977306</v>
       </c>
     </row>
@@ -12609,31 +13199,30 @@
       <c r="C81" s="1">
         <v>2019</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>1286269</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="2">
         <v>29758160000</v>
       </c>
       <c r="F81" s="2">
         <v>75.117900000000006</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="4">
         <v>800196</v>
       </c>
       <c r="H81" s="2">
         <v>6.1013000000000002</v>
       </c>
       <c r="I81" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K81" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J81" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K81" s="1">
-        <f t="shared" si="5"/>
         <v>0.50045431827468634</v>
       </c>
     </row>
@@ -12647,31 +13236,30 @@
       <c r="C82" s="1">
         <v>2019</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <v>125762977</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="2">
         <v>2390322600000</v>
       </c>
       <c r="F82" s="2">
         <v>74.202100000000002</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="4">
         <v>87647163</v>
       </c>
       <c r="H82" s="2">
         <v>6.4649999999999999</v>
       </c>
       <c r="I82" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K82" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J82" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K82" s="1">
-        <f t="shared" si="5"/>
         <v>0.83091499192475149</v>
       </c>
     </row>
@@ -12685,31 +13273,30 @@
       <c r="C83" s="1">
         <v>2019</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <v>3232119</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="2">
         <v>38380400000</v>
       </c>
       <c r="F83" s="2">
         <v>71.822100000000006</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="4">
         <v>1651128</v>
       </c>
       <c r="H83" s="2">
         <v>5.4561999999999999</v>
       </c>
       <c r="I83" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K83" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J83" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K83" s="1">
-        <f t="shared" si="5"/>
         <v>-8.5688603286098078E-2</v>
       </c>
     </row>
@@ -12723,31 +13310,30 @@
       <c r="C84" s="1">
         <v>2019</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>611673</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="2">
         <v>13721467000</v>
       </c>
       <c r="F84" s="2">
         <v>77.039599999999993</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="4">
         <v>463199</v>
       </c>
       <c r="H84" s="2">
         <v>5.5461</v>
       </c>
       <c r="I84" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K84" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J84" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K84" s="1">
-        <f t="shared" si="5"/>
         <v>-4.004757915900355E-3</v>
       </c>
     </row>
@@ -12761,31 +13347,30 @@
       <c r="C85" s="1">
         <v>2019</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>36210907</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="2">
         <v>288999740000</v>
       </c>
       <c r="F85" s="2">
         <v>74.270499999999998</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="4">
         <v>27001880</v>
       </c>
       <c r="H85" s="2">
         <v>5.0948000000000002</v>
       </c>
       <c r="I85" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K85" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J85" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K85" s="1">
-        <f t="shared" si="5"/>
         <v>-0.41405947888998468</v>
       </c>
     </row>
@@ -12799,31 +13384,30 @@
       <c r="C86" s="1">
         <v>2019</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>29884376</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="2">
         <v>37315924000</v>
       </c>
       <c r="F86" s="2">
         <v>61.166200000000003</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="4">
         <v>4573126</v>
       </c>
       <c r="H86" s="2">
         <v>4.6235999999999997</v>
       </c>
       <c r="I86" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K86" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J86" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K86" s="1">
-        <f t="shared" si="5"/>
         <v>-0.84219549600274513</v>
       </c>
     </row>
@@ -12837,31 +13421,30 @@
       <c r="C87" s="1">
         <v>2019</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>52640718</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="2">
         <v>278516300000</v>
       </c>
       <c r="F87" s="2">
         <v>66.610399999999998</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="4">
         <v>18511035</v>
       </c>
       <c r="H87" s="2">
         <v>4.3079999999999998</v>
       </c>
       <c r="I87" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K87" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J87" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K87" s="1">
-        <f t="shared" si="5"/>
         <v>-1.1289521322522931</v>
       </c>
     </row>
@@ -12875,31 +13458,30 @@
       <c r="C88" s="1">
         <v>2019</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <v>2650500</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="2">
         <v>23331656000</v>
       </c>
       <c r="F88" s="2">
         <v>63.075000000000003</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="4">
         <v>990892</v>
       </c>
       <c r="H88" s="2">
         <v>4.5711000000000004</v>
       </c>
       <c r="I88" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K88" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J88" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K88" s="1">
-        <f t="shared" si="5"/>
         <v>-0.88989740792638605</v>
       </c>
     </row>
@@ -12913,31 +13495,30 @@
       <c r="C89" s="1">
         <v>2019</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <v>28414066</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="2">
         <v>103878740000</v>
       </c>
       <c r="F89" s="2">
         <v>69.557599999999994</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="4">
         <v>9457060</v>
       </c>
       <c r="H89" s="2">
         <v>5.1372</v>
       </c>
       <c r="I89" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K89" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J89" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K89" s="1">
-        <f t="shared" si="5"/>
         <v>-0.37553450621260576</v>
       </c>
     </row>
@@ -12951,31 +13532,30 @@
       <c r="C90" s="1">
         <v>2019</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <v>17537506</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="2">
         <v>950077950000</v>
       </c>
       <c r="F90" s="2">
         <v>82.045500000000004</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="4">
         <v>16197940</v>
       </c>
       <c r="H90" s="2">
         <v>7.4489000000000001</v>
       </c>
       <c r="I90" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K90" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J90" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K90" s="1">
-        <f t="shared" si="5"/>
         <v>1.7248942517661026</v>
       </c>
     </row>
@@ -12989,31 +13569,30 @@
       <c r="C91" s="1">
         <v>2019</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <v>4989412</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="2">
         <v>198604600000</v>
       </c>
       <c r="F91" s="2">
         <v>82.566500000000005</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="4">
         <v>4473048</v>
       </c>
       <c r="H91" s="2">
         <v>7.2995999999999999</v>
       </c>
       <c r="I91" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K91" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J91" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K91" s="1">
-        <f t="shared" si="5"/>
         <v>1.5892391003337276</v>
       </c>
     </row>
@@ -13027,31 +13606,30 @@
       <c r="C92" s="1">
         <v>2019</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <v>6483660</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="2">
         <v>32886407000</v>
       </c>
       <c r="F92" s="2">
         <v>74.054299999999998</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="4">
         <v>2518961</v>
       </c>
       <c r="H92" s="2">
         <v>6.1371000000000002</v>
       </c>
       <c r="I92" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K92" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J92" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K92" s="1">
-        <f t="shared" si="5"/>
         <v>0.53298247916737906</v>
       </c>
     </row>
@@ -13065,31 +13643,30 @@
       <c r="C93" s="1">
         <v>2019</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <v>209485636</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="2">
         <v>1001537340000</v>
       </c>
       <c r="F93" s="2">
         <v>52.910400000000003</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="4">
         <v>68310308</v>
       </c>
       <c r="H93" s="2">
         <v>4.7241</v>
       </c>
       <c r="I93" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K93" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J93" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K93" s="1">
-        <f t="shared" si="5"/>
         <v>-0.7508804074632025</v>
       </c>
     </row>
@@ -13103,31 +13680,30 @@
       <c r="C94" s="1">
         <v>2019</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <v>1897643</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="2">
         <v>32876157000</v>
       </c>
       <c r="F94" s="2">
         <v>77.2928</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G94" s="4">
         <v>1721211</v>
       </c>
       <c r="H94" s="2">
         <v>5.1597999999999997</v>
       </c>
       <c r="I94" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K94" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J94" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K94" s="1">
-        <f t="shared" si="5"/>
         <v>-0.35499996888928603</v>
       </c>
     </row>
@@ -13141,31 +13717,30 @@
       <c r="C95" s="1">
         <v>2019</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <v>5347735</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="2">
         <v>396253900000</v>
       </c>
       <c r="F95" s="2">
         <v>82.955200000000005</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G95" s="4">
         <v>5241320</v>
       </c>
       <c r="H95" s="2">
         <v>7.4880000000000004</v>
       </c>
       <c r="I95" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K95" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J95" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K95" s="1">
-        <f t="shared" si="5"/>
         <v>1.760420818551139</v>
       </c>
     </row>
@@ -13179,31 +13754,30 @@
       <c r="C96" s="1">
         <v>2019</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <v>230800909</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="2">
         <v>1088502500000</v>
       </c>
       <c r="F96" s="2">
         <v>66.755799999999994</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G96" s="4">
         <v>38118177</v>
       </c>
       <c r="H96" s="2">
         <v>5.6932999999999998</v>
       </c>
       <c r="I96" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K96" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J96" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K96" s="1">
-        <f t="shared" si="5"/>
         <v>0.12974231703952871</v>
       </c>
     </row>
@@ -13217,31 +13791,30 @@
       <c r="C97" s="1">
         <v>2019</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="4">
         <v>4957774</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="2">
         <v>36793782000</v>
       </c>
       <c r="F97" s="2">
         <v>75.240600000000001</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G97" s="4">
         <v>3467410</v>
       </c>
       <c r="H97" s="2">
         <v>4.5528000000000004</v>
       </c>
       <c r="I97" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K97" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J97" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K97" s="1">
-        <f t="shared" si="5"/>
         <v>-0.90652493151119828</v>
       </c>
     </row>
@@ -13255,31 +13828,30 @@
       <c r="C98" s="1">
         <v>2019</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <v>4234699</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="2">
         <v>126883185000</v>
       </c>
       <c r="F98" s="2">
         <v>77.810299999999998</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G98" s="4">
         <v>2693097</v>
       </c>
       <c r="H98" s="2">
         <v>6.3048000000000002</v>
       </c>
       <c r="I98" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K98" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J98" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K98" s="1">
-        <f t="shared" si="5"/>
         <v>0.68535601496918264</v>
       </c>
     </row>
@@ -13293,31 +13865,30 @@
       <c r="C99" s="1">
         <v>2019</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <v>6515060</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="2">
         <v>86788555000</v>
       </c>
       <c r="F99" s="2">
         <v>73.620699999999999</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99" s="4">
         <v>4474221</v>
       </c>
       <c r="H99" s="2">
         <v>5.6920999999999999</v>
       </c>
       <c r="I99" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K99" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J99" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K99" s="1">
-        <f t="shared" si="5"/>
         <v>0.12865198762413133</v>
       </c>
     </row>
@@ -13331,31 +13902,30 @@
       <c r="C100" s="1">
         <v>2019</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="4">
         <v>32449301</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="2">
         <v>397821020000</v>
       </c>
       <c r="F100" s="2">
         <v>76.155900000000003</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G100" s="4">
         <v>19678670</v>
       </c>
       <c r="H100" s="2">
         <v>5.7968000000000002</v>
       </c>
       <c r="I100" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K100" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J100" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K100" s="1">
-        <f t="shared" si="5"/>
         <v>0.22378322911756526</v>
       </c>
     </row>
@@ -13369,31 +13939,30 @@
       <c r="C101" s="1">
         <v>2019</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="4">
         <v>110804685</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="2">
         <v>913426800000</v>
       </c>
       <c r="F101" s="2">
         <v>71.864900000000006</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G101" s="4">
         <v>47493118</v>
       </c>
       <c r="H101" s="2">
         <v>6.0060000000000002</v>
       </c>
       <c r="I101" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K101" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J101" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K101" s="1">
-        <f t="shared" si="5"/>
         <v>0.41386399053519984</v>
       </c>
     </row>
@@ -13407,31 +13976,30 @@
       <c r="C102" s="1">
         <v>2019</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="4">
         <v>38225884</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="2">
         <v>1211846200000</v>
       </c>
       <c r="F102" s="2">
         <v>77.927199999999999</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G102" s="4">
         <v>30962676</v>
       </c>
       <c r="H102" s="2">
         <v>6.1863000000000001</v>
       </c>
       <c r="I102" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K102" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J102" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K102" s="1">
-        <f t="shared" si="5"/>
         <v>0.57768598519867731</v>
       </c>
     </row>
@@ -13445,31 +14013,30 @@
       <c r="C103" s="1">
         <v>2019</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="4">
         <v>10343218</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="2">
         <v>325160040000</v>
       </c>
       <c r="F103" s="2">
         <v>81.700699999999998</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G103" s="4">
         <v>7753082</v>
       </c>
       <c r="H103" s="2">
         <v>5.9108999999999998</v>
       </c>
       <c r="I103" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K103" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J103" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K103" s="1">
-        <f t="shared" si="5"/>
         <v>0.32745538436494592</v>
       </c>
     </row>
@@ -13483,31 +14050,30 @@
       <c r="C104" s="1">
         <v>2019</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="4">
         <v>19501543</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="2">
         <v>540045740000</v>
       </c>
       <c r="F104" s="2">
         <v>76.507900000000006</v>
       </c>
-      <c r="G104" s="5">
+      <c r="G104" s="4">
         <v>14381042</v>
       </c>
       <c r="H104" s="2">
         <v>6.1237000000000004</v>
       </c>
       <c r="I104" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K104" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J104" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K104" s="1">
-        <f t="shared" si="5"/>
         <v>0.52080713402877354</v>
       </c>
     </row>
@@ -13521,31 +14087,30 @@
       <c r="C105" s="1">
         <v>2019</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="4">
         <v>146533063</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="2">
         <v>4161194400000</v>
       </c>
       <c r="F105" s="2">
         <v>73.933199999999999</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G105" s="4">
         <v>120444573</v>
       </c>
       <c r="H105" s="2">
         <v>5.5460000000000003</v>
       </c>
       <c r="I105" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K105" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J105" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K105" s="1">
-        <f t="shared" si="5"/>
         <v>-4.0956187005166036E-3</v>
       </c>
     </row>
@@ -13559,31 +14124,30 @@
       <c r="C106" s="1">
         <v>2019</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="4">
         <v>12776104</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="2">
         <v>28783219000</v>
       </c>
       <c r="F106" s="2">
         <v>66.436999999999998</v>
       </c>
-      <c r="G106" s="5">
+      <c r="G106" s="4">
         <v>3337108</v>
       </c>
       <c r="H106" s="2">
         <v>3.3123</v>
       </c>
       <c r="I106" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K106" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J106" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K106" s="1">
-        <f t="shared" si="5"/>
         <v>-2.0336529646783861</v>
       </c>
     </row>
@@ -13597,31 +14161,30 @@
       <c r="C107" s="1">
         <v>2019</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="4">
         <v>30472810</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="2">
         <v>1775962400000</v>
       </c>
       <c r="F107" s="2">
         <v>77.303600000000003</v>
       </c>
-      <c r="G107" s="5">
+      <c r="G107" s="4">
         <v>34295651</v>
       </c>
       <c r="H107" s="2">
         <v>6.4065000000000003</v>
       </c>
       <c r="I107" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K107" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J107" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K107" s="1">
-        <f t="shared" si="5"/>
         <v>0.7777614329241227</v>
       </c>
     </row>
@@ -13635,31 +14198,30 @@
       <c r="C108" s="1">
         <v>2019</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="4">
         <v>16352926</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="2">
         <v>52927870000</v>
       </c>
       <c r="F108" s="2">
         <v>68.525800000000004</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="4">
         <v>6320309</v>
       </c>
       <c r="H108" s="2">
         <v>4.9808000000000003</v>
       </c>
       <c r="I108" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K108" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J108" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K108" s="1">
-        <f t="shared" si="5"/>
         <v>-0.51764077335274905</v>
       </c>
     </row>
@@ -13673,31 +14235,30 @@
       <c r="C109" s="1">
         <v>2019</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="4">
         <v>6966154</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="2">
         <v>120447670000</v>
       </c>
       <c r="F109" s="2">
         <v>76.703999999999994</v>
       </c>
-      <c r="G109" s="5">
+      <c r="G109" s="4">
         <v>5729659</v>
       </c>
       <c r="H109" s="2">
         <v>5.7782</v>
       </c>
       <c r="I109" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K109" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J109" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K109" s="1">
-        <f t="shared" si="5"/>
         <v>0.20688312317890353</v>
       </c>
     </row>
@@ -13711,31 +14272,30 @@
       <c r="C110" s="1">
         <v>2019</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="4">
         <v>7731995</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="2">
         <v>14651260000</v>
       </c>
       <c r="F110" s="2">
         <v>60.254899999999999</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G110" s="4">
         <v>1351867</v>
       </c>
       <c r="H110" s="2">
         <v>3.9264000000000001</v>
       </c>
       <c r="I110" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K110" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J110" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K110" s="1">
-        <f t="shared" si="5"/>
         <v>-1.4756768863487046</v>
       </c>
     </row>
@@ -13749,31 +14309,30 @@
       <c r="C111" s="1">
         <v>2019</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="4">
         <v>5669562</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="2">
         <v>477907880000</v>
       </c>
       <c r="F111" s="2">
         <v>83.758399999999995</v>
       </c>
-      <c r="G111" s="5">
+      <c r="G111" s="4">
         <v>5218126</v>
       </c>
       <c r="H111" s="2">
         <v>6.3771000000000004</v>
       </c>
       <c r="I111" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K111" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J111" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K111" s="1">
-        <f t="shared" si="5"/>
         <v>0.75104836224688354</v>
       </c>
     </row>
@@ -13787,31 +14346,30 @@
       <c r="C112" s="1">
         <v>2019</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="4">
         <v>5450626</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="2">
         <v>149921430000</v>
       </c>
       <c r="F112" s="2">
         <v>77.685100000000006</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G112" s="4">
         <v>4518782</v>
       </c>
       <c r="H112" s="2">
         <v>6.2805999999999997</v>
       </c>
       <c r="I112" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K112" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J112" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K112" s="1">
-        <f t="shared" si="5"/>
         <v>0.66336770509199894</v>
       </c>
     </row>
@@ -13825,31 +14383,30 @@
       <c r="C113" s="1">
         <v>2019</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="4">
         <v>2083436</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="2">
         <v>70868520000</v>
       </c>
       <c r="F113" s="2">
         <v>81.604200000000006</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G113" s="4">
         <v>1756001</v>
       </c>
       <c r="H113" s="2">
         <v>6.3634000000000004</v>
       </c>
       <c r="I113" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K113" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J113" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K113" s="1">
-        <f t="shared" si="5"/>
         <v>0.73860043475442849</v>
       </c>
     </row>
@@ -13863,31 +14420,30 @@
       <c r="C114" s="1">
         <v>2019</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="4">
         <v>59587880</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="2">
         <v>734094360000</v>
       </c>
       <c r="F114" s="2">
         <v>66.174999999999997</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G114" s="4">
         <v>39615373</v>
       </c>
       <c r="H114" s="2">
         <v>4.8140999999999998</v>
       </c>
       <c r="I114" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K114" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J114" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K114" s="1">
-        <f t="shared" si="5"/>
         <v>-0.66910570130838853</v>
       </c>
     </row>
@@ -13901,31 +14457,30 @@
       <c r="C115" s="1">
         <v>2019</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="4">
         <v>51767843</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="2">
         <v>2162705300000</v>
       </c>
       <c r="F115" s="2">
         <v>83.655699999999996</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G115" s="4">
         <v>49813310</v>
       </c>
       <c r="H115" s="2">
         <v>5.8723999999999998</v>
       </c>
       <c r="I115" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K115" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J115" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K115" s="1">
-        <f t="shared" si="5"/>
         <v>0.29247398228760879</v>
       </c>
     </row>
@@ -13939,31 +14494,30 @@
       <c r="C116" s="1">
         <v>2019</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="4">
         <v>47435120</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="2">
         <v>1886595200000</v>
       </c>
       <c r="F116" s="2">
         <v>83.5321</v>
       </c>
-      <c r="G116" s="5">
+      <c r="G116" s="4">
         <v>42756952</v>
       </c>
       <c r="H116" s="2">
         <v>6.4009</v>
       </c>
       <c r="I116" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K116" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J116" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K116" s="1">
-        <f t="shared" si="5"/>
         <v>0.77267322898560065</v>
       </c>
     </row>
@@ -13977,31 +14531,30 @@
       <c r="C117" s="1">
         <v>2019</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="4">
         <v>22410552</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="2">
         <v>283395000000</v>
       </c>
       <c r="F117" s="2">
         <v>76.008399999999995</v>
       </c>
-      <c r="G117" s="5">
+      <c r="G117" s="4">
         <v>6278403</v>
       </c>
       <c r="H117" s="2">
         <v>4.327</v>
       </c>
       <c r="I117" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K117" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J117" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K117" s="1">
-        <f t="shared" si="5"/>
         <v>-1.1116885831751657</v>
       </c>
     </row>
@@ -14015,31 +14568,30 @@
       <c r="C118" s="1">
         <v>2019</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="4">
         <v>10279122</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="2">
         <v>526240800000</v>
       </c>
       <c r="F118" s="2">
         <v>83.052400000000006</v>
       </c>
-      <c r="G118" s="5">
+      <c r="G118" s="4">
         <v>9702513</v>
       </c>
       <c r="H118" s="2">
         <v>7.3535000000000004</v>
       </c>
       <c r="I118" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K118" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J118" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K118" s="1">
-        <f t="shared" si="5"/>
         <v>1.638213063242</v>
       </c>
     </row>
@@ -14053,31 +14605,30 @@
       <c r="C119" s="1">
         <v>2019</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="4">
         <v>8577526</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="2">
         <v>646919600000</v>
       </c>
       <c r="F119" s="2">
         <v>83.780199999999994</v>
       </c>
-      <c r="G119" s="5">
+      <c r="G119" s="4">
         <v>7987829</v>
       </c>
       <c r="H119" s="2">
         <v>7.5598999999999998</v>
       </c>
       <c r="I119" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K119" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J119" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K119" s="1">
-        <f t="shared" si="5"/>
         <v>1.8257497226903732</v>
       </c>
     </row>
@@ -14091,31 +14642,30 @@
       <c r="C120" s="1">
         <v>2019</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="4">
         <v>59174889</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="2">
         <v>132986660000</v>
       </c>
       <c r="F120" s="2">
         <v>66.988500000000002</v>
       </c>
-      <c r="G120" s="5">
+      <c r="G120" s="4">
         <v>11974517</v>
       </c>
       <c r="H120" s="2">
         <v>3.4762</v>
       </c>
       <c r="I120" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K120" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J120" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K120" s="1">
-        <f t="shared" si="5"/>
         <v>-1.8847321386920082</v>
       </c>
     </row>
@@ -14129,31 +14679,30 @@
       <c r="C121" s="1">
         <v>2019</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="4">
         <v>71522265</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="2">
         <v>1191732800000</v>
       </c>
       <c r="F121" s="2">
         <v>78.975099999999998</v>
       </c>
-      <c r="G121" s="5">
+      <c r="G121" s="4">
         <v>47528353</v>
       </c>
       <c r="H121" s="2">
         <v>5.9988000000000001</v>
       </c>
       <c r="I121" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K121" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J121" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K121" s="1">
-        <f t="shared" si="5"/>
         <v>0.40732201404281465</v>
       </c>
     </row>
@@ -14167,31 +14716,30 @@
       <c r="C122" s="1">
         <v>2019</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="4">
         <v>8463068</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="2">
         <v>18065920000</v>
       </c>
       <c r="F122" s="2">
         <v>60.9011</v>
       </c>
-      <c r="G122" s="5">
+      <c r="G122" s="4">
         <v>1590917</v>
       </c>
       <c r="H122" s="2">
         <v>4.1871999999999998</v>
       </c>
       <c r="I122" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K122" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J122" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K122" s="1">
-        <f t="shared" si="5"/>
         <v>-1.2387119600689769</v>
       </c>
     </row>
@@ -14205,31 +14753,30 @@
       <c r="C123" s="1">
         <v>2019</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="4">
         <v>11875085</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123" s="2">
         <v>129698920000</v>
       </c>
       <c r="F123" s="2">
         <v>75.993300000000005</v>
       </c>
-      <c r="G123" s="5">
+      <c r="G123" s="4">
         <v>8036895</v>
       </c>
       <c r="H123" s="2">
         <v>4.3921999999999999</v>
       </c>
       <c r="I123" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K123" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J123" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K123" s="1">
-        <f t="shared" si="5"/>
         <v>-1.0524473516052337</v>
       </c>
     </row>
@@ -14243,31 +14790,30 @@
       <c r="C124" s="1">
         <v>2019</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="4">
         <v>85357671</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="2">
         <v>2248225800000</v>
       </c>
       <c r="F124" s="2">
         <v>77.831800000000001</v>
       </c>
-      <c r="G124" s="5">
+      <c r="G124" s="4">
         <v>61756998</v>
       </c>
       <c r="H124" s="2">
         <v>5.1318000000000001</v>
       </c>
       <c r="I124" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K124" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J124" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K124" s="1">
-        <f t="shared" si="5"/>
         <v>-0.38044098858189451</v>
       </c>
     </row>
@@ -14281,31 +14827,30 @@
       <c r="C125" s="1">
         <v>2019</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="4">
         <v>42999636</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="2">
         <v>92618600000</v>
       </c>
       <c r="F125" s="2">
         <v>62.991300000000003</v>
       </c>
-      <c r="G125" s="5">
+      <c r="G125" s="4">
         <v>6313514</v>
       </c>
       <c r="H125" s="2">
         <v>4.4320000000000004</v>
       </c>
       <c r="I125" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K125" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J125" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K125" s="1">
-        <f t="shared" si="5"/>
         <v>-1.0162847593278821</v>
       </c>
     </row>
@@ -14319,31 +14864,30 @@
       <c r="C126" s="1">
         <v>2019</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="4">
         <v>44957450</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="2">
         <v>578290500000</v>
       </c>
       <c r="F126" s="2">
         <v>74.5364</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G126" s="4">
         <v>31002966</v>
       </c>
       <c r="H126" s="2">
         <v>4.5606999999999998</v>
       </c>
       <c r="I126" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K126" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J126" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K126" s="1">
-        <f t="shared" si="5"/>
         <v>-0.89934692952649853</v>
       </c>
     </row>
@@ -14357,31 +14901,30 @@
       <c r="C127" s="1">
         <v>2019</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="4">
         <v>9377855</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="2">
         <v>645956240000</v>
       </c>
       <c r="F127" s="2">
         <v>79.726200000000006</v>
       </c>
-      <c r="G127" s="5">
+      <c r="G127" s="4">
         <v>9133361</v>
       </c>
       <c r="H127" s="2">
         <v>6.7907999999999999</v>
       </c>
       <c r="I127" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K127" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J127" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K127" s="1">
-        <f t="shared" si="5"/>
         <v>1.1269394282051786</v>
       </c>
     </row>
@@ -14395,35 +14938,34 @@
       <c r="C128" s="1">
         <v>2019</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="4">
         <v>67110958</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="2">
         <v>2989895500000</v>
       </c>
       <c r="F128" s="2">
         <v>81.724999999999994</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G128" s="4">
         <v>61781367</v>
       </c>
       <c r="H128" s="2">
         <v>7.1645000000000003</v>
       </c>
       <c r="I128" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K128" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J128" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTA</v>
-      </c>
-      <c r="K128" s="1">
-        <f t="shared" si="5"/>
         <v>1.4664861803168903</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>5</v>
       </c>
@@ -14433,35 +14975,34 @@
       <c r="C129" s="1">
         <v>2019</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="4">
         <v>337790068</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="2">
         <v>20595845000000</v>
       </c>
       <c r="F129" s="2">
         <v>79.138000000000005</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G129" s="4">
         <v>298983035</v>
       </c>
       <c r="H129" s="2">
         <v>6.9396000000000004</v>
       </c>
       <c r="I129" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K129" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J129" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K129" s="1">
-        <f t="shared" si="5"/>
         <v>1.2621402757144717</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>257</v>
       </c>
@@ -14471,35 +15012,34 @@
       <c r="C130" s="1">
         <v>2019</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="4">
         <v>3397205</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="2">
         <v>71122790000</v>
       </c>
       <c r="F130" s="2">
         <v>77.508499999999998</v>
       </c>
-      <c r="G130" s="5">
+      <c r="G130" s="4">
         <v>2857634</v>
       </c>
       <c r="H130" s="2">
         <v>6.4401000000000002</v>
       </c>
       <c r="I130" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DEPAY</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K130" s="1">
         <f t="shared" si="3"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J130" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>BAIXA</v>
-      </c>
-      <c r="K130" s="1">
-        <f t="shared" si="5"/>
         <v>0.80829065655525312</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>259</v>
       </c>
@@ -14509,35 +15049,34 @@
       <c r="C131" s="1">
         <v>2019</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="4">
         <v>97173778</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="2">
         <v>724123400000</v>
       </c>
       <c r="F131" s="2">
         <v>74.0929</v>
       </c>
-      <c r="G131" s="5">
+      <c r="G131" s="4">
         <v>65761807</v>
       </c>
       <c r="H131" s="2">
         <v>5.3535000000000004</v>
       </c>
       <c r="I131" s="1" t="str">
-        <f t="shared" ref="I131:I133" si="6">IF(F131&lt;40,"ESTEVÃO","DEPAY")</f>
+        <f t="shared" ref="I131:I133" si="4">IF(F131&lt;40,"ESTEVÃO","DEPAY")</f>
         <v>DEPAY</v>
       </c>
-      <c r="J131" s="1" t="str">
-        <f t="shared" ref="J131:J133" si="7">IF(H131&gt;7,"ALTA","BAIXA")</f>
-        <v>BAIXA</v>
+      <c r="J131" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="K131" s="1">
-        <f t="shared" ref="K131:K133" si="8">(H131-$H$136)/$H$137</f>
+        <f t="shared" ref="K131:K133" si="5">(H131-$H$136)/$H$137</f>
         <v>-0.17900262908720221</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>261</v>
       </c>
@@ -14547,35 +15086,34 @@
       <c r="C132" s="1">
         <v>2019</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="4">
         <v>18513841</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="2">
         <v>56783716000</v>
       </c>
       <c r="F132" s="2">
         <v>62.7926</v>
       </c>
-      <c r="G132" s="5">
+      <c r="G132" s="4">
         <v>3087920</v>
       </c>
       <c r="H132" s="2">
         <v>3.7593999999999999</v>
       </c>
       <c r="I132" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>DEPAY</v>
       </c>
-      <c r="J132" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>BAIXA</v>
+      <c r="J132" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="K132" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>-1.6274143966581933</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>263</v>
       </c>
@@ -14585,36 +15123,39 @@
       <c r="C133" s="1">
         <v>2019</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="4">
         <v>15271377</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="2">
         <v>40826570000</v>
       </c>
       <c r="F133" s="2">
         <v>61.292499999999997</v>
       </c>
-      <c r="G133" s="5">
+      <c r="G133" s="4">
         <v>3854006</v>
       </c>
       <c r="H133" s="2">
         <v>3.2991999999999999</v>
       </c>
       <c r="I133" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>DEPAY</v>
       </c>
-      <c r="J133" s="1" t="str">
-        <f t="shared" si="7"/>
+      <c r="J133" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K133" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.0455557274631428</v>
+      </c>
+      <c r="M133" s="1" t="str">
+        <f>J133</f>
         <v>BAIXA</v>
       </c>
-      <c r="K133" s="1">
-        <f t="shared" si="8"/>
-        <v>-2.0455557274631428</v>
-      </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H136" s="6">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H136" s="5">
         <f>AVERAGE(H1:H133)</f>
         <v>5.5505075757575781</v>
       </c>
@@ -14622,8 +15163,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H137" s="6">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H137" s="5">
         <f>_xlfn.STDEV.S(H1:H133)</f>
         <v>1.1005848168945291</v>
       </c>
@@ -14652,6 +15193,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TabelaTeste2.xlsx
+++ b/TabelaTeste2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\Pandas Lib\Testes - 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02D6951-5139-4411-A6DA-91AA9F0A1673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585D5FD3-6E78-4C07-B7D5-2E99610B3906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A591480A-62D0-784E-ADFE-D975E29332B5}"/>
   </bookViews>
@@ -17,10 +17,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'BD Final'!$H$2:$H$133</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'BD Final'!$G$2:$G$133</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'BD Final'!$D$2:$D$133</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'BD Final'!$F$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'BD Final'!$F$2:$F$133</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'BD Final'!$F$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'BD Final'!$F$2:$F$133</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'BD Final'!$D$2:$D$133</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'BD Final'!$G$2:$G$133</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'BD Final'!$E$1</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'BD Final'!$E$2:$E$133</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="287">
   <si>
     <t>Brazil</t>
   </si>
@@ -851,24 +851,12 @@
     <t>PIB</t>
   </si>
   <si>
-    <t>Expectativa de Vida (em anos)</t>
-  </si>
-  <si>
-    <t>Acesso Internet (pessoas)</t>
-  </si>
-  <si>
     <t>Índice de Felicidade (0-10)</t>
   </si>
   <si>
     <t>População</t>
   </si>
   <si>
-    <t>média</t>
-  </si>
-  <si>
-    <t>desv pad</t>
-  </si>
-  <si>
     <t>IF PADRONIZADA</t>
   </si>
   <si>
@@ -888,6 +876,36 @@
   </si>
   <si>
     <t>ALTA</t>
+  </si>
+  <si>
+    <t>Continente</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>África</t>
+  </si>
+  <si>
+    <t>América do Sul</t>
+  </si>
+  <si>
+    <t>Ásia</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>América do Norte</t>
+  </si>
+  <si>
+    <t>América Central</t>
+  </si>
+  <si>
+    <t>Expectativa de Vida</t>
+  </si>
+  <si>
+    <t>Acesso Internet</t>
   </si>
 </sst>
 </file>
@@ -895,8 +913,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -940,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -954,11 +972,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5790,7 +5811,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5851,7 +5872,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5889,8 +5910,8 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{60E10D99-FFF3-4C5B-8D50-1EA0B3DDECBB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
-              <cx:v>Expectativa de Vida (em anos)</cx:v>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>Expectativa de Vida</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -5985,7 +6006,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10197,7 +10218,7 @@
   <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10210,7 +10231,7 @@
     <col min="6" max="6" width="26.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1"/>
+    <col min="9" max="9" width="22.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="81.125" style="1" bestFit="1" customWidth="1"/>
@@ -10228,28 +10249,31 @@
         <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>267</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -10277,19 +10301,18 @@
       <c r="H2" s="2">
         <v>4.8826999999999998</v>
       </c>
-      <c r="I2" s="1" t="str">
-        <f>IF(F2&lt;40,"ESTEVÃO","DEPAY")</f>
-        <v>DEPAY</v>
+      <c r="I2" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K2" s="1">
         <f>(H2-$H$136)/$H$137</f>
         <v>-0.6067752030614969</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -10317,15 +10340,14 @@
       <c r="H3" s="2">
         <v>5.0050999999999997</v>
       </c>
-      <c r="I3" s="1" t="str">
-        <f t="shared" ref="I3:I66" si="0">IF(F3&lt;40,"ESTEVÃO","DEPAY")</f>
-        <v>DEPAY</v>
+      <c r="I3" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K66" si="1">(H3-$H$136)/$H$137</f>
+        <f t="shared" ref="K3:K66" si="0">(H3-$H$136)/$H$137</f>
         <v>-0.4955616026909499</v>
       </c>
     </row>
@@ -10354,15 +10376,14 @@
       <c r="H4" s="2">
         <v>5.9747000000000003</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="1"/>
         <v>0.38542456495024796</v>
       </c>
     </row>
@@ -10391,15 +10412,14 @@
       <c r="H5" s="2">
         <v>4.6768000000000001</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="1"/>
         <v>-0.79385755858678808</v>
       </c>
     </row>
@@ -10428,15 +10448,14 @@
       <c r="H6" s="2">
         <v>7.2228000000000003</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="1"/>
         <v>1.5194580177482866</v>
       </c>
     </row>
@@ -10465,15 +10484,14 @@
       <c r="H7" s="2">
         <v>7.2942</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="1"/>
         <v>1.5843326179644388</v>
       </c>
     </row>
@@ -10502,15 +10520,14 @@
       <c r="H8" s="2">
         <v>5.1647999999999996</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="1"/>
         <v>-0.35045692965846315</v>
       </c>
     </row>
@@ -10539,15 +10556,14 @@
       <c r="H9" s="2">
         <v>6.2272999999999996</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="1"/>
         <v>0.6149389068914255</v>
       </c>
     </row>
@@ -10576,15 +10592,14 @@
       <c r="H10" s="2">
         <v>4.8327999999999998</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="1"/>
         <v>-0.6521147345851106</v>
       </c>
     </row>
@@ -10613,15 +10628,14 @@
       <c r="H11" s="2">
         <v>5.5399000000000003</v>
       </c>
-      <c r="I11" s="1" t="str">
+      <c r="I11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="1"/>
         <v>-9.6381265621206646E-3</v>
       </c>
     </row>
@@ -10650,15 +10664,14 @@
       <c r="H12" s="2">
         <v>6.8635000000000002</v>
       </c>
-      <c r="I12" s="1" t="str">
+      <c r="I12" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="1"/>
         <v>1.1929952186213453</v>
       </c>
     </row>
@@ -10687,15 +10700,14 @@
       <c r="H13" s="2">
         <v>5.2160000000000002</v>
       </c>
-      <c r="I13" s="1" t="str">
+      <c r="I13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="1"/>
         <v>-0.30393620793483506</v>
       </c>
     </row>
@@ -10724,15 +10736,14 @@
       <c r="H14" s="2">
         <v>5.7474999999999996</v>
       </c>
-      <c r="I14" s="1" t="str">
+      <c r="I14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="1"/>
         <v>0.17898886230164993</v>
       </c>
     </row>
@@ -10761,15 +10772,14 @@
       <c r="H15" s="2">
         <v>5.6741000000000001</v>
       </c>
-      <c r="I15" s="1" t="str">
+      <c r="I15" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K15" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="1"/>
         <v>0.11229704639316869</v>
       </c>
     </row>
@@ -10798,19 +10808,18 @@
       <c r="H16" s="2">
         <v>3.4788999999999999</v>
       </c>
-      <c r="I16" s="1" t="str">
+      <c r="I16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="1"/>
         <v>-1.8822788975073639</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -10838,15 +10847,14 @@
       <c r="H17" s="2">
         <v>6.3756000000000004</v>
       </c>
-      <c r="I17" s="1" t="str">
+      <c r="I17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="1"/>
         <v>0.74968545047763657</v>
       </c>
       <c r="L17" s="1">
@@ -10879,15 +10887,14 @@
       <c r="H18" s="2">
         <v>5.1014999999999997</v>
       </c>
-      <c r="I18" s="1" t="str">
+      <c r="I18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="1"/>
         <v>-0.40797180632068231</v>
       </c>
     </row>
@@ -10916,15 +10923,14 @@
       <c r="H19" s="2">
         <v>4.7686999999999999</v>
       </c>
-      <c r="I19" s="1" t="str">
+      <c r="I19" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K19" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="1"/>
         <v>-0.71035649752426133</v>
       </c>
       <c r="L19" s="6">
@@ -10957,15 +10963,14 @@
       <c r="H20" s="2">
         <v>3.7753000000000001</v>
       </c>
-      <c r="I20" s="1" t="str">
+      <c r="I20" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K20" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="1"/>
         <v>-1.6129675319041759</v>
       </c>
     </row>
@@ -10994,15 +10999,14 @@
       <c r="H21" s="2">
         <v>5.0849000000000002</v>
       </c>
-      <c r="I21" s="1" t="str">
+      <c r="I21" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="1"/>
         <v>-0.42305469656701422</v>
       </c>
     </row>
@@ -11031,15 +11035,14 @@
       <c r="H22" s="2">
         <v>7.2321</v>
       </c>
-      <c r="I22" s="1" t="str">
+      <c r="I22" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="1"/>
         <v>1.5279080707176171</v>
       </c>
     </row>
@@ -11068,15 +11071,14 @@
       <c r="H23" s="2">
         <v>3.4759000000000002</v>
       </c>
-      <c r="I23" s="1" t="str">
+      <c r="I23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="1"/>
         <v>-1.8850047210458574</v>
       </c>
     </row>
@@ -11105,15 +11107,14 @@
       <c r="H24" s="2">
         <v>4.4226999999999999</v>
       </c>
-      <c r="I24" s="1" t="str">
+      <c r="I24" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="1"/>
         <v>-1.0247348122972133</v>
       </c>
     </row>
@@ -11142,15 +11143,14 @@
       <c r="H25" s="2">
         <v>6.2285000000000004</v>
       </c>
-      <c r="I25" s="1" t="str">
+      <c r="I25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="1"/>
         <v>0.61602923630682371</v>
       </c>
     </row>
@@ -11179,15 +11179,14 @@
       <c r="H26" s="2">
         <v>5.1238999999999999</v>
       </c>
-      <c r="I26" s="1" t="str">
+      <c r="I26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="1"/>
         <v>-0.38761899056659505</v>
       </c>
     </row>
@@ -11216,15 +11215,14 @@
       <c r="H27" s="2">
         <v>6.1634000000000002</v>
       </c>
-      <c r="I27" s="1" t="str">
+      <c r="I27" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="1"/>
         <v>0.55687886552150812</v>
       </c>
     </row>
@@ -11253,15 +11251,14 @@
       <c r="H28" s="2">
         <v>7.1214000000000004</v>
       </c>
-      <c r="I28" s="1" t="str">
+      <c r="I28" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="1"/>
         <v>1.4273251821471962</v>
       </c>
     </row>
@@ -11290,15 +11287,14 @@
       <c r="H29" s="2">
         <v>5.2332999999999998</v>
       </c>
-      <c r="I29" s="1" t="str">
+      <c r="I29" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="1"/>
         <v>-0.28821729219618775</v>
       </c>
     </row>
@@ -11327,15 +11323,14 @@
       <c r="H30" s="2">
         <v>5.5046999999999997</v>
       </c>
-      <c r="I30" s="1" t="str">
+      <c r="I30" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="1"/>
         <v>-4.1621122747115137E-2</v>
       </c>
     </row>
@@ -11364,15 +11359,14 @@
       <c r="H31" s="2">
         <v>6.1589999999999998</v>
       </c>
-      <c r="I31" s="1" t="str">
+      <c r="I31" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="1"/>
         <v>0.5528809909983835</v>
       </c>
     </row>
@@ -11401,15 +11395,14 @@
       <c r="H32" s="2">
         <v>6.9108999999999998</v>
       </c>
-      <c r="I32" s="1" t="str">
+      <c r="I32" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="1"/>
         <v>1.2360632305295471</v>
       </c>
     </row>
@@ -11438,15 +11431,14 @@
       <c r="H33" s="2">
         <v>4.3109999999999999</v>
       </c>
-      <c r="I33" s="1" t="str">
+      <c r="I33" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K33" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="1"/>
         <v>-1.1262263087137991</v>
       </c>
     </row>
@@ -11475,15 +11467,14 @@
       <c r="H34" s="2">
         <v>7.6456</v>
       </c>
-      <c r="I34" s="1" t="str">
+      <c r="I34" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K34" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="1"/>
         <v>1.9036174151066796</v>
       </c>
     </row>
@@ -11512,15 +11503,14 @@
       <c r="H35" s="2">
         <v>5.6891999999999996</v>
       </c>
-      <c r="I35" s="1" t="str">
+      <c r="I35" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="1"/>
         <v>0.12601702487025365</v>
       </c>
     </row>
@@ -11549,15 +11539,14 @@
       <c r="H36" s="2">
         <v>5.9252000000000002</v>
       </c>
-      <c r="I36" s="1" t="str">
+      <c r="I36" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K36" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" si="1"/>
         <v>0.34044847656510013</v>
       </c>
     </row>
@@ -11586,15 +11575,14 @@
       <c r="H37" s="2">
         <v>4.1513999999999998</v>
       </c>
-      <c r="I37" s="1" t="str">
+      <c r="I37" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K37" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="1"/>
         <v>-1.2712401209616697</v>
       </c>
     </row>
@@ -11623,15 +11611,14 @@
       <c r="H38" s="2">
         <v>6.3483000000000001</v>
       </c>
-      <c r="I38" s="1" t="str">
+      <c r="I38" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K38" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="1"/>
         <v>0.72488045627734266</v>
       </c>
     </row>
@@ -11660,15 +11647,14 @@
       <c r="H39" s="2">
         <v>6.0217999999999998</v>
       </c>
-      <c r="I39" s="1" t="str">
+      <c r="I39" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="1"/>
         <v>0.42821999450460019</v>
       </c>
     </row>
@@ -11697,15 +11683,14 @@
       <c r="H40" s="2">
         <v>4.1862000000000004</v>
       </c>
-      <c r="I40" s="1" t="str">
+      <c r="I40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K40" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="1"/>
         <v>-1.2396205679151411</v>
       </c>
     </row>
@@ -11734,15 +11719,14 @@
       <c r="H41" s="2">
         <v>7.8087</v>
       </c>
-      <c r="I41" s="1" t="str">
+      <c r="I41" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K41" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K41" s="1">
-        <f t="shared" si="1"/>
         <v>2.0518113548161261</v>
       </c>
     </row>
@@ -11771,15 +11755,14 @@
       <c r="H42" s="2">
         <v>6.6638000000000002</v>
       </c>
-      <c r="I42" s="1" t="str">
+      <c r="I42" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K42" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="1"/>
         <v>1.0115462317422743</v>
       </c>
     </row>
@@ -11808,15 +11791,14 @@
       <c r="H43" s="2">
         <v>4.8292999999999999</v>
       </c>
-      <c r="I43" s="1" t="str">
+      <c r="I43" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K43" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="1"/>
         <v>-0.65529486204668652</v>
       </c>
     </row>
@@ -11845,15 +11827,14 @@
       <c r="H44" s="2">
         <v>4.7506000000000004</v>
       </c>
-      <c r="I44" s="1" t="str">
+      <c r="I44" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K44" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="1"/>
         <v>-0.72680229953984021</v>
       </c>
     </row>
@@ -11882,15 +11863,14 @@
       <c r="H45" s="2">
         <v>4.6726000000000001</v>
       </c>
-      <c r="I45" s="1" t="str">
+      <c r="I45" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K45" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K45" s="1">
-        <f t="shared" si="1"/>
         <v>-0.79767371154067934</v>
       </c>
     </row>
@@ -11919,15 +11899,14 @@
       <c r="H46" s="2">
         <v>7.0758000000000001</v>
       </c>
-      <c r="I46" s="1" t="str">
+      <c r="I46" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K46" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K46" s="1">
-        <f t="shared" si="1"/>
         <v>1.3858926643620899</v>
       </c>
     </row>
@@ -11956,15 +11935,14 @@
       <c r="H47" s="2">
         <v>5.1479999999999997</v>
       </c>
-      <c r="I47" s="1" t="str">
+      <c r="I47" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K47" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K47" s="1">
-        <f t="shared" si="1"/>
         <v>-0.36572154147402836</v>
       </c>
     </row>
@@ -11993,15 +11971,14 @@
       <c r="H48" s="2">
         <v>5.5149999999999997</v>
       </c>
-      <c r="I48" s="1" t="str">
+      <c r="I48" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K48" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" si="1"/>
         <v>-3.2262461931619767E-2</v>
       </c>
     </row>
@@ -12030,15 +12007,14 @@
       <c r="H49" s="2">
         <v>6.3989000000000003</v>
       </c>
-      <c r="I49" s="1" t="str">
+      <c r="I49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K49" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K49" s="1">
-        <f t="shared" si="1"/>
         <v>0.77085601329327169</v>
       </c>
     </row>
@@ -12067,15 +12043,14 @@
       <c r="H50" s="2">
         <v>4.9493</v>
       </c>
-      <c r="I50" s="1" t="str">
+      <c r="I50" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K50" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="1"/>
         <v>-0.54626192050693434</v>
       </c>
     </row>
@@ -12104,15 +12079,14 @@
       <c r="H51" s="2">
         <v>3.7208000000000001</v>
       </c>
-      <c r="I51" s="1" t="str">
+      <c r="I51" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K51" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="1"/>
         <v>-1.6624866595201466</v>
       </c>
     </row>
@@ -12141,15 +12115,14 @@
       <c r="H52" s="2">
         <v>5.9531999999999998</v>
       </c>
-      <c r="I52" s="1" t="str">
+      <c r="I52" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K52" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="1"/>
         <v>0.36588949625770856</v>
       </c>
     </row>
@@ -12178,15 +12151,14 @@
       <c r="H53" s="2">
         <v>5.5103999999999997</v>
       </c>
-      <c r="I53" s="1" t="str">
+      <c r="I53" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K53" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="1"/>
         <v>-3.6442058023976875E-2</v>
       </c>
     </row>
@@ -12215,15 +12187,14 @@
       <c r="H54" s="2">
         <v>6.0004</v>
       </c>
-      <c r="I54" s="1" t="str">
+      <c r="I54" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K54" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" si="1"/>
         <v>0.40877578659667785</v>
       </c>
     </row>
@@ -12252,15 +12223,14 @@
       <c r="H55" s="2">
         <v>7.5045000000000002</v>
       </c>
-      <c r="I55" s="1" t="str">
+      <c r="I55" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K55" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K55" s="1">
-        <f t="shared" si="1"/>
         <v>1.7754128480128546</v>
       </c>
     </row>
@@ -12289,15 +12259,14 @@
       <c r="H56" s="2">
         <v>3.5733000000000001</v>
       </c>
-      <c r="I56" s="1" t="str">
+      <c r="I56" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K56" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="1"/>
         <v>-1.7965063168294253</v>
       </c>
     </row>
@@ -12326,15 +12295,14 @@
       <c r="H57" s="2">
         <v>5.2855999999999996</v>
       </c>
-      <c r="I57" s="1" t="str">
+      <c r="I57" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K57" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" si="1"/>
         <v>-0.24069710184177931</v>
       </c>
     </row>
@@ -12363,15 +12331,14 @@
       <c r="H58" s="2">
         <v>4.6723999999999997</v>
       </c>
-      <c r="I58" s="1" t="str">
+      <c r="I58" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K58" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K58" s="1">
-        <f t="shared" si="1"/>
         <v>-0.79785543310991269</v>
       </c>
     </row>
@@ -12400,15 +12367,14 @@
       <c r="H59" s="2">
         <v>4.7847999999999997</v>
       </c>
-      <c r="I59" s="1" t="str">
+      <c r="I59" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K59" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K59" s="1">
-        <f t="shared" si="1"/>
         <v>-0.69572791120101141</v>
       </c>
     </row>
@@ -12437,15 +12403,14 @@
       <c r="H60" s="2">
         <v>7.0937000000000001</v>
       </c>
-      <c r="I60" s="1" t="str">
+      <c r="I60" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K60" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K60" s="1">
-        <f t="shared" si="1"/>
         <v>1.4021567448084364</v>
       </c>
     </row>
@@ -12474,15 +12439,14 @@
       <c r="H61" s="2">
         <v>7.1285999999999996</v>
       </c>
-      <c r="I61" s="1" t="str">
+      <c r="I61" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K61" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K61" s="1">
-        <f t="shared" si="1"/>
         <v>1.4338671586395806</v>
       </c>
     </row>
@@ -12511,15 +12475,14 @@
       <c r="H62" s="2">
         <v>6.3874000000000004</v>
       </c>
-      <c r="I62" s="1" t="str">
+      <c r="I62" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K62" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K62" s="1">
-        <f t="shared" si="1"/>
         <v>0.76040702306237895</v>
       </c>
     </row>
@@ -12548,15 +12511,14 @@
       <c r="H63" s="2">
         <v>5.8708</v>
       </c>
-      <c r="I63" s="1" t="str">
+      <c r="I63" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K63" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K63" s="1">
-        <f t="shared" si="1"/>
         <v>0.29102020973374559</v>
       </c>
     </row>
@@ -12585,15 +12547,14 @@
       <c r="H64" s="2">
         <v>6.0579000000000001</v>
       </c>
-      <c r="I64" s="1" t="str">
+      <c r="I64" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K64" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K64" s="1">
-        <f t="shared" si="1"/>
         <v>0.4610207377511425</v>
       </c>
     </row>
@@ -12622,15 +12583,14 @@
       <c r="H65" s="2">
         <v>4.5830000000000002</v>
       </c>
-      <c r="I65" s="1" t="str">
+      <c r="I65" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K65" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K65" s="1">
-        <f t="shared" si="1"/>
         <v>-0.8790849745570275</v>
       </c>
     </row>
@@ -12659,15 +12619,14 @@
       <c r="H66" s="2">
         <v>6.1021000000000001</v>
       </c>
-      <c r="I66" s="1" t="str">
+      <c r="I66" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K66" s="1">
         <f t="shared" si="0"/>
-        <v>DEPAY</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K66" s="1">
-        <f t="shared" si="1"/>
         <v>0.50118120455161785</v>
       </c>
     </row>
@@ -12696,15 +12655,14 @@
       <c r="H67" s="2">
         <v>5.5415000000000001</v>
       </c>
-      <c r="I67" s="1" t="str">
-        <f t="shared" ref="I67:I130" si="2">IF(F67&lt;40,"ESTEVÃO","DEPAY")</f>
-        <v>DEPAY</v>
+      <c r="I67" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" ref="K67:K130" si="3">(H67-$H$136)/$H$137</f>
+        <f t="shared" ref="K67:K130" si="1">(H67-$H$136)/$H$137</f>
         <v>-8.1843540082574637E-3</v>
       </c>
     </row>
@@ -12733,15 +12691,14 @@
       <c r="H68" s="2">
         <v>4.8886000000000003</v>
       </c>
-      <c r="I68" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I68" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.60141441676912533</v>
       </c>
     </row>
@@ -12770,15 +12727,14 @@
       <c r="H69" s="2">
         <v>5.95</v>
       </c>
-      <c r="I69" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I69" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.36298195114998216</v>
       </c>
     </row>
@@ -12807,15 +12763,14 @@
       <c r="H70" s="2">
         <v>4.7714999999999996</v>
       </c>
-      <c r="I70" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I70" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.70781239555500075</v>
       </c>
     </row>
@@ -12844,15 +12799,14 @@
       <c r="H71" s="2">
         <v>3.6528</v>
       </c>
-      <c r="I71" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I71" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.7242719930593395</v>
       </c>
     </row>
@@ -12881,15 +12835,14 @@
       <c r="H72" s="2">
         <v>4.5579000000000001</v>
       </c>
-      <c r="I72" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I72" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.90189103149575911</v>
       </c>
     </row>
@@ -12918,15 +12871,14 @@
       <c r="H73" s="2">
         <v>6.2154999999999996</v>
       </c>
-      <c r="I73" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I73" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.60421733430668323</v>
       </c>
     </row>
@@ -12955,15 +12907,14 @@
       <c r="H74" s="2">
         <v>7.2374999999999998</v>
       </c>
-      <c r="I74" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I74" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.5328145530869057</v>
       </c>
     </row>
@@ -12992,15 +12943,14 @@
       <c r="H75" s="2">
         <v>3.5379999999999998</v>
       </c>
-      <c r="I75" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I75" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.8285801737990359</v>
       </c>
     </row>
@@ -13029,15 +12979,14 @@
       <c r="H76" s="2">
         <v>5.3842999999999996</v>
       </c>
-      <c r="I76" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I76" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.15101750742533315</v>
       </c>
     </row>
@@ -13066,15 +13015,14 @@
       <c r="H77" s="2">
         <v>5.1976000000000004</v>
       </c>
-      <c r="I77" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I77" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.32065459230426346</v>
       </c>
     </row>
@@ -13103,15 +13051,14 @@
       <c r="H78" s="2">
         <v>4.7293000000000003</v>
       </c>
-      <c r="I78" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I78" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.74615564666314627</v>
       </c>
     </row>
@@ -13140,15 +13087,14 @@
       <c r="H79" s="2">
         <v>6.7728000000000002</v>
       </c>
-      <c r="I79" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I79" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.1105844869742159</v>
       </c>
     </row>
@@ -13177,15 +13123,14 @@
       <c r="H80" s="2">
         <v>4.3746</v>
       </c>
-      <c r="I80" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I80" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.0684388496977306</v>
       </c>
     </row>
@@ -13214,15 +13159,14 @@
       <c r="H81" s="2">
         <v>6.1013000000000002</v>
       </c>
-      <c r="I81" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I81" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.50045431827468634</v>
       </c>
     </row>
@@ -13251,15 +13195,14 @@
       <c r="H82" s="2">
         <v>6.4649999999999999</v>
       </c>
-      <c r="I82" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I82" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.83091499192475149</v>
       </c>
     </row>
@@ -13288,15 +13231,14 @@
       <c r="H83" s="2">
         <v>5.4561999999999999</v>
       </c>
-      <c r="I83" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I83" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-8.5688603286098078E-2</v>
       </c>
     </row>
@@ -13325,15 +13267,14 @@
       <c r="H84" s="2">
         <v>5.5461</v>
       </c>
-      <c r="I84" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I84" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-4.004757915900355E-3</v>
       </c>
     </row>
@@ -13362,15 +13303,14 @@
       <c r="H85" s="2">
         <v>5.0948000000000002</v>
       </c>
-      <c r="I85" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I85" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.41405947888998468</v>
       </c>
     </row>
@@ -13399,15 +13339,14 @@
       <c r="H86" s="2">
         <v>4.6235999999999997</v>
       </c>
-      <c r="I86" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I86" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.84219549600274513</v>
       </c>
     </row>
@@ -13436,15 +13375,14 @@
       <c r="H87" s="2">
         <v>4.3079999999999998</v>
       </c>
-      <c r="I87" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I87" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.1289521322522931</v>
       </c>
     </row>
@@ -13473,15 +13411,14 @@
       <c r="H88" s="2">
         <v>4.5711000000000004</v>
       </c>
-      <c r="I88" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I88" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.88989740792638605</v>
       </c>
     </row>
@@ -13510,15 +13447,14 @@
       <c r="H89" s="2">
         <v>5.1372</v>
       </c>
-      <c r="I89" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I89" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.37553450621260576</v>
       </c>
     </row>
@@ -13547,15 +13483,14 @@
       <c r="H90" s="2">
         <v>7.4489000000000001</v>
       </c>
-      <c r="I90" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I90" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.7248942517661026</v>
       </c>
     </row>
@@ -13584,15 +13519,14 @@
       <c r="H91" s="2">
         <v>7.2995999999999999</v>
       </c>
-      <c r="I91" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I91" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.5892391003337276</v>
       </c>
     </row>
@@ -13621,15 +13555,14 @@
       <c r="H92" s="2">
         <v>6.1371000000000002</v>
       </c>
-      <c r="I92" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I92" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.53298247916737906</v>
       </c>
     </row>
@@ -13658,15 +13591,14 @@
       <c r="H93" s="2">
         <v>4.7241</v>
       </c>
-      <c r="I93" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I93" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.7508804074632025</v>
       </c>
     </row>
@@ -13695,15 +13627,14 @@
       <c r="H94" s="2">
         <v>5.1597999999999997</v>
       </c>
-      <c r="I94" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I94" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.35499996888928603</v>
       </c>
     </row>
@@ -13732,15 +13663,14 @@
       <c r="H95" s="2">
         <v>7.4880000000000004</v>
       </c>
-      <c r="I95" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I95" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.760420818551139</v>
       </c>
     </row>
@@ -13769,15 +13699,14 @@
       <c r="H96" s="2">
         <v>5.6932999999999998</v>
       </c>
-      <c r="I96" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I96" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.12974231703952871</v>
       </c>
     </row>
@@ -13806,15 +13735,14 @@
       <c r="H97" s="2">
         <v>4.5528000000000004</v>
       </c>
-      <c r="I97" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I97" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.90652493151119828</v>
       </c>
     </row>
@@ -13843,15 +13771,14 @@
       <c r="H98" s="2">
         <v>6.3048000000000002</v>
       </c>
-      <c r="I98" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I98" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.68535601496918264</v>
       </c>
     </row>
@@ -13880,15 +13807,14 @@
       <c r="H99" s="2">
         <v>5.6920999999999999</v>
       </c>
-      <c r="I99" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I99" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.12865198762413133</v>
       </c>
     </row>
@@ -13917,15 +13843,14 @@
       <c r="H100" s="2">
         <v>5.7968000000000002</v>
       </c>
-      <c r="I100" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I100" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.22378322911756526</v>
       </c>
     </row>
@@ -13954,15 +13879,14 @@
       <c r="H101" s="2">
         <v>6.0060000000000002</v>
       </c>
-      <c r="I101" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I101" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.41386399053519984</v>
       </c>
     </row>
@@ -13991,15 +13915,14 @@
       <c r="H102" s="2">
         <v>6.1863000000000001</v>
       </c>
-      <c r="I102" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I102" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.57768598519867731</v>
       </c>
     </row>
@@ -14028,15 +13951,14 @@
       <c r="H103" s="2">
         <v>5.9108999999999998</v>
       </c>
-      <c r="I103" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I103" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.32745538436494592</v>
       </c>
     </row>
@@ -14065,15 +13987,14 @@
       <c r="H104" s="2">
         <v>6.1237000000000004</v>
       </c>
-      <c r="I104" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I104" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.52080713402877354</v>
       </c>
     </row>
@@ -14102,15 +14023,14 @@
       <c r="H105" s="2">
         <v>5.5460000000000003</v>
       </c>
-      <c r="I105" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I105" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-4.0956187005166036E-3</v>
       </c>
     </row>
@@ -14139,15 +14059,14 @@
       <c r="H106" s="2">
         <v>3.3123</v>
       </c>
-      <c r="I106" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I106" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-2.0336529646783861</v>
       </c>
     </row>
@@ -14176,15 +14095,14 @@
       <c r="H107" s="2">
         <v>6.4065000000000003</v>
       </c>
-      <c r="I107" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I107" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.7777614329241227</v>
       </c>
     </row>
@@ -14213,15 +14131,14 @@
       <c r="H108" s="2">
         <v>4.9808000000000003</v>
       </c>
-      <c r="I108" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I108" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.51764077335274905</v>
       </c>
     </row>
@@ -14250,15 +14167,14 @@
       <c r="H109" s="2">
         <v>5.7782</v>
       </c>
-      <c r="I109" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I109" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K109" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.20688312317890353</v>
       </c>
     </row>
@@ -14287,15 +14203,14 @@
       <c r="H110" s="2">
         <v>3.9264000000000001</v>
       </c>
-      <c r="I110" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I110" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K110" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.4756768863487046</v>
       </c>
     </row>
@@ -14324,15 +14239,14 @@
       <c r="H111" s="2">
         <v>6.3771000000000004</v>
       </c>
-      <c r="I111" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I111" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K111" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.75104836224688354</v>
       </c>
     </row>
@@ -14361,15 +14275,14 @@
       <c r="H112" s="2">
         <v>6.2805999999999997</v>
       </c>
-      <c r="I112" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I112" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.66336770509199894</v>
       </c>
     </row>
@@ -14398,15 +14311,14 @@
       <c r="H113" s="2">
         <v>6.3634000000000004</v>
       </c>
-      <c r="I113" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I113" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K113" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.73860043475442849</v>
       </c>
     </row>
@@ -14435,15 +14347,14 @@
       <c r="H114" s="2">
         <v>4.8140999999999998</v>
       </c>
-      <c r="I114" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I114" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K114" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.66910570130838853</v>
       </c>
     </row>
@@ -14472,15 +14383,14 @@
       <c r="H115" s="2">
         <v>5.8723999999999998</v>
       </c>
-      <c r="I115" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I115" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K115" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.29247398228760879</v>
       </c>
     </row>
@@ -14509,15 +14419,14 @@
       <c r="H116" s="2">
         <v>6.4009</v>
       </c>
-      <c r="I116" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I116" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K116" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.77267322898560065</v>
       </c>
     </row>
@@ -14546,15 +14455,14 @@
       <c r="H117" s="2">
         <v>4.327</v>
       </c>
-      <c r="I117" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I117" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K117" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.1116885831751657</v>
       </c>
     </row>
@@ -14583,15 +14491,14 @@
       <c r="H118" s="2">
         <v>7.3535000000000004</v>
       </c>
-      <c r="I118" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I118" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K118" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.638213063242</v>
       </c>
     </row>
@@ -14620,15 +14527,14 @@
       <c r="H119" s="2">
         <v>7.5598999999999998</v>
       </c>
-      <c r="I119" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I119" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K119" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.8257497226903732</v>
       </c>
     </row>
@@ -14657,15 +14563,14 @@
       <c r="H120" s="2">
         <v>3.4762</v>
       </c>
-      <c r="I120" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I120" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K120" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.8847321386920082</v>
       </c>
     </row>
@@ -14694,15 +14599,14 @@
       <c r="H121" s="2">
         <v>5.9988000000000001</v>
       </c>
-      <c r="I121" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I121" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K121" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.40732201404281465</v>
       </c>
     </row>
@@ -14731,15 +14635,14 @@
       <c r="H122" s="2">
         <v>4.1871999999999998</v>
       </c>
-      <c r="I122" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I122" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K122" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.2387119600689769</v>
       </c>
     </row>
@@ -14768,15 +14671,14 @@
       <c r="H123" s="2">
         <v>4.3921999999999999</v>
       </c>
-      <c r="I123" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I123" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K123" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.0524473516052337</v>
       </c>
     </row>
@@ -14805,15 +14707,14 @@
       <c r="H124" s="2">
         <v>5.1318000000000001</v>
       </c>
-      <c r="I124" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I124" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K124" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.38044098858189451</v>
       </c>
     </row>
@@ -14842,15 +14743,14 @@
       <c r="H125" s="2">
         <v>4.4320000000000004</v>
       </c>
-      <c r="I125" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I125" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K125" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.0162847593278821</v>
       </c>
     </row>
@@ -14879,15 +14779,14 @@
       <c r="H126" s="2">
         <v>4.5606999999999998</v>
       </c>
-      <c r="I126" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I126" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K126" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.89934692952649853</v>
       </c>
     </row>
@@ -14916,15 +14815,14 @@
       <c r="H127" s="2">
         <v>6.7907999999999999</v>
       </c>
-      <c r="I127" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I127" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K127" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.1269394282051786</v>
       </c>
     </row>
@@ -14953,15 +14851,14 @@
       <c r="H128" s="2">
         <v>7.1645000000000003</v>
       </c>
-      <c r="I128" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I128" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K128" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.4664861803168903</v>
       </c>
     </row>
@@ -14990,15 +14887,14 @@
       <c r="H129" s="2">
         <v>6.9396000000000004</v>
       </c>
-      <c r="I129" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I129" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K129" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.2621402757144717</v>
       </c>
     </row>
@@ -15027,15 +14923,14 @@
       <c r="H130" s="2">
         <v>6.4401000000000002</v>
       </c>
-      <c r="I130" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DEPAY</v>
+      <c r="I130" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K130" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.80829065655525312</v>
       </c>
     </row>
@@ -15064,15 +14959,14 @@
       <c r="H131" s="2">
         <v>5.3535000000000004</v>
       </c>
-      <c r="I131" s="1" t="str">
-        <f t="shared" ref="I131:I133" si="4">IF(F131&lt;40,"ESTEVÃO","DEPAY")</f>
-        <v>DEPAY</v>
+      <c r="I131" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K131" s="1">
-        <f t="shared" ref="K131:K133" si="5">(H131-$H$136)/$H$137</f>
+        <f t="shared" ref="K131:K133" si="2">(H131-$H$136)/$H$137</f>
         <v>-0.17900262908720221</v>
       </c>
     </row>
@@ -15101,15 +14995,14 @@
       <c r="H132" s="2">
         <v>3.7593999999999999</v>
       </c>
-      <c r="I132" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>DEPAY</v>
+      <c r="I132" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K132" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-1.6274143966581933</v>
       </c>
     </row>
@@ -15138,39 +15031,37 @@
       <c r="H133" s="2">
         <v>3.2991999999999999</v>
       </c>
-      <c r="I133" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>DEPAY</v>
+      <c r="I133" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K133" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-2.0455557274631428</v>
       </c>
       <c r="M133" s="1" t="str">
         <f>J133</f>
         <v>BAIXA</v>
       </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I134" s="7"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H136" s="5">
         <f>AVERAGE(H1:H133)</f>
         <v>5.5505075757575781</v>
       </c>
-      <c r="I136" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="I136" s="5"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H137" s="5">
         <f>_xlfn.STDEV.S(H1:H133)</f>
         <v>1.1005848168945291</v>
       </c>
-      <c r="I137" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="I137" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D133">
